--- a/资料/翻译/V3R1多语言单品翻译英文字段翻译.xlsx
+++ b/资料/翻译/V3R1多语言单品翻译英文字段翻译.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Project\small-apple\资料\翻译\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F77824-4B06-4AFE-A242-39E69EB2D91B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32768" yWindow="32768" windowWidth="21600" windowHeight="10470"/>
+    <workbookView xWindow="10490" yWindow="1250" windowWidth="16200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="To Be Translated" sheetId="1" r:id="rId1"/>
@@ -23240,10 +23246,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Hots</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Done</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -23509,13 +23511,17 @@
   </si>
   <si>
     <t>Remote control button learning</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -24066,17 +24072,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 13" xfId="4"/>
-    <cellStyle name="常规 2" xfId="5"/>
-    <cellStyle name="常规 2 2" xfId="6"/>
-    <cellStyle name="常规 3" xfId="7"/>
-    <cellStyle name="常规 4" xfId="8"/>
-    <cellStyle name="常规 5" xfId="9"/>
-    <cellStyle name="超链接 2" xfId="10"/>
+    <cellStyle name="常规 13" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 5" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="超链接 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="好" xfId="11" builtinId="26"/>
   </cellStyles>
   <dxfs count="39">
@@ -24542,6 +24548,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -24562,7 +24576,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21949" name="图片 2"/>
+        <xdr:cNvPr id="21949" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BD550000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -24604,7 +24624,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21950" name="图片 5"/>
+        <xdr:cNvPr id="21950" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BE550000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -24647,7 +24673,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21951" name="图片 6"/>
+        <xdr:cNvPr id="21951" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BF550000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -24689,7 +24721,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21952" name="图片 7"/>
+        <xdr:cNvPr id="21952" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0550000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -24731,7 +24769,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21953" name="图片 9"/>
+        <xdr:cNvPr id="21953" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C1550000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -24773,7 +24817,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21954" name="图片 10"/>
+        <xdr:cNvPr id="21954" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C2550000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -24815,7 +24865,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21955" name="图片 11"/>
+        <xdr:cNvPr id="21955" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C3550000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -24857,7 +24913,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21956" name="图片 12"/>
+        <xdr:cNvPr id="21956" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C4550000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -24899,7 +24961,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21957" name="图片 14"/>
+        <xdr:cNvPr id="21957" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C5550000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -24941,7 +25009,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21958" name="图片 15"/>
+        <xdr:cNvPr id="21958" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C6550000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -24983,7 +25057,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21959" name="图片 16"/>
+        <xdr:cNvPr id="21959" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C7550000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -25025,7 +25105,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21960" name="图片 17"/>
+        <xdr:cNvPr id="21960" name="图片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C8550000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -25067,7 +25153,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21961" name="图片 18"/>
+        <xdr:cNvPr id="21961" name="图片 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C9550000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -25109,7 +25201,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21962" name="图片 19"/>
+        <xdr:cNvPr id="21962" name="图片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CA550000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -25151,7 +25249,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21963" name="图片 20"/>
+        <xdr:cNvPr id="21963" name="图片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CB550000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -25193,7 +25297,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21964" name="图片 21"/>
+        <xdr:cNvPr id="21964" name="图片 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CC550000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -25235,7 +25345,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21965" name="图片 22"/>
+        <xdr:cNvPr id="21965" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CD550000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -25277,7 +25393,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21966" name="图片 23"/>
+        <xdr:cNvPr id="21966" name="图片 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CE550000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -25319,7 +25441,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21967" name="图片 24"/>
+        <xdr:cNvPr id="21967" name="图片 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CF550000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -25361,7 +25489,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21968" name="图片 25"/>
+        <xdr:cNvPr id="21968" name="图片 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D0550000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -25403,7 +25537,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21969" name="图片 26"/>
+        <xdr:cNvPr id="21969" name="图片 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D1550000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -25445,7 +25585,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21970" name="图片 27"/>
+        <xdr:cNvPr id="21970" name="图片 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D2550000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -25476,7 +25622,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -25518,7 +25664,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -25550,9 +25696,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -25584,6 +25748,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -25759,29 +25941,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="7.46484375" style="56" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="56" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="56" customWidth="1"/>
-    <col min="4" max="4" width="28.1328125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="33.59765625" style="45" customWidth="1"/>
-    <col min="6" max="7" width="1.73046875" style="56" customWidth="1"/>
-    <col min="8" max="8" width="2.73046875" style="56" customWidth="1"/>
-    <col min="9" max="9" width="50.53125" style="56" customWidth="1"/>
-    <col min="10" max="13" width="9.06640625" style="56"/>
-    <col min="14" max="14" width="10.46484375" style="56" customWidth="1"/>
-    <col min="15" max="16384" width="9.06640625" style="56"/>
+    <col min="1" max="1" width="7.453125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="5.36328125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="8.36328125" style="56" customWidth="1"/>
+    <col min="4" max="4" width="28.08984375" style="45" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" style="45" customWidth="1"/>
+    <col min="6" max="7" width="1.7265625" style="56" customWidth="1"/>
+    <col min="8" max="8" width="2.7265625" style="56" customWidth="1"/>
+    <col min="9" max="9" width="50.54296875" style="56" customWidth="1"/>
+    <col min="10" max="13" width="9.08984375" style="56"/>
+    <col min="14" max="14" width="10.453125" style="56" customWidth="1"/>
+    <col min="15" max="16384" width="9.08984375" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="71.650000000000006" customHeight="1">
@@ -25792,7 +25974,7 @@
         <v>3834</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="D1" s="42" t="s">
         <v>3839</v>
@@ -25820,7 +26002,7 @@
       <c r="M1" s="70"/>
       <c r="N1" s="71"/>
     </row>
-    <row r="2" spans="1:14" ht="30">
+    <row r="2" spans="1:14" ht="33">
       <c r="A2" s="41" t="s">
         <v>3843</v>
       </c>
@@ -25868,7 +26050,7 @@
         <v>3865</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
@@ -25888,7 +26070,7 @@
         <v>3866</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="F5" s="49"/>
       <c r="G5" s="41"/>
@@ -25908,7 +26090,7 @@
         <v>3867</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="F6" s="49"/>
       <c r="G6" s="41"/>
@@ -25942,7 +26124,7 @@
         <v>3868</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="41"/>
@@ -25962,7 +26144,7 @@
         <v>3869</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="F9" s="49"/>
       <c r="G9" s="41"/>
@@ -26076,7 +26258,7 @@
         <v>3874</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="F15" s="49"/>
       <c r="G15" s="41"/>
@@ -26124,7 +26306,7 @@
       <c r="M17" s="52"/>
       <c r="N17" s="52"/>
     </row>
-    <row r="18" spans="1:14" ht="25.5">
+    <row r="18" spans="1:14" ht="25">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
@@ -26270,7 +26452,7 @@
       <c r="M26" s="52"/>
       <c r="N26" s="52"/>
     </row>
-    <row r="27" spans="1:14" ht="25.5">
+    <row r="27" spans="1:14" ht="25">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
@@ -26286,7 +26468,7 @@
       <c r="M27" s="52"/>
       <c r="N27" s="52"/>
     </row>
-    <row r="28" spans="1:14" ht="25.5">
+    <row r="28" spans="1:14" ht="25">
       <c r="A28" s="41"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
@@ -26336,7 +26518,7 @@
       <c r="M30" s="52"/>
       <c r="N30" s="52"/>
     </row>
-    <row r="31" spans="1:14" ht="24.4">
+    <row r="31" spans="1:14" ht="24">
       <c r="A31" s="41"/>
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
@@ -26378,7 +26560,7 @@
         <v>3876</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="F33" s="50"/>
       <c r="G33" s="41"/>
@@ -26398,7 +26580,7 @@
         <v>3877</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="F34" s="50"/>
       <c r="G34" s="41"/>
@@ -26434,7 +26616,7 @@
         <v>3878</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="F36" s="50"/>
       <c r="G36" s="41"/>
@@ -26454,7 +26636,7 @@
         <v>3879</v>
       </c>
       <c r="E37" s="41" t="s">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="F37" s="49"/>
       <c r="G37" s="41"/>
@@ -26494,7 +26676,7 @@
         <v>3881</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>3954</v>
+        <v>4019</v>
       </c>
       <c r="F39" s="49"/>
       <c r="G39" s="41"/>
@@ -26602,7 +26784,7 @@
       <c r="M45" s="52"/>
       <c r="N45" s="52"/>
     </row>
-    <row r="46" spans="1:14" ht="24.4">
+    <row r="46" spans="1:14" ht="24">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
@@ -26860,7 +27042,7 @@
       <c r="M61" s="52"/>
       <c r="N61" s="52"/>
     </row>
-    <row r="62" spans="1:14" ht="24.4">
+    <row r="62" spans="1:14" ht="24">
       <c r="A62" s="41"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
@@ -26904,7 +27086,7 @@
         <v>3882</v>
       </c>
       <c r="E64" s="41" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="F64" s="49"/>
       <c r="G64" s="41"/>
@@ -26936,7 +27118,7 @@
       <c r="M65" s="52"/>
       <c r="N65" s="52"/>
     </row>
-    <row r="66" spans="1:14" ht="45">
+    <row r="66" spans="1:14" ht="49.5">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
@@ -26964,7 +27146,7 @@
         <v>3885</v>
       </c>
       <c r="E67" s="41" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="F67" s="50"/>
       <c r="G67" s="41"/>
@@ -26984,7 +27166,7 @@
         <v>3886</v>
       </c>
       <c r="E68" s="41" t="s">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="F68" s="49"/>
       <c r="G68" s="41"/>
@@ -27004,7 +27186,7 @@
         <v>3887</v>
       </c>
       <c r="E69" s="41" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="F69" s="49"/>
       <c r="G69" s="41"/>
@@ -27096,7 +27278,7 @@
       <c r="M74" s="52"/>
       <c r="N74" s="52"/>
     </row>
-    <row r="75" spans="1:14" ht="24.4">
+    <row r="75" spans="1:14" ht="24">
       <c r="A75" s="52"/>
       <c r="B75" s="52"/>
       <c r="C75" s="41"/>
@@ -27258,7 +27440,7 @@
       <c r="M84" s="52"/>
       <c r="N84" s="52"/>
     </row>
-    <row r="85" spans="1:14" ht="24.4">
+    <row r="85" spans="1:14" ht="24">
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41"/>
@@ -27308,7 +27490,7 @@
       <c r="M87" s="52"/>
       <c r="N87" s="52"/>
     </row>
-    <row r="88" spans="1:14" ht="24.4">
+    <row r="88" spans="1:14" ht="24">
       <c r="A88" s="41"/>
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
@@ -27326,7 +27508,7 @@
       <c r="M88" s="52"/>
       <c r="N88" s="52"/>
     </row>
-    <row r="89" spans="1:14" ht="16.05" customHeight="1">
+    <row r="89" spans="1:14" ht="16" customHeight="1">
       <c r="A89" s="41"/>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
@@ -27350,7 +27532,7 @@
         <v>3888</v>
       </c>
       <c r="E90" s="41" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="F90" s="49"/>
       <c r="G90" s="41"/>
@@ -27370,7 +27552,7 @@
         <v>3889</v>
       </c>
       <c r="E91" s="41" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="F91" s="49"/>
       <c r="G91" s="41"/>
@@ -27390,7 +27572,7 @@
         <v>3890</v>
       </c>
       <c r="E92" s="41" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="F92" s="49"/>
       <c r="G92" s="41"/>
@@ -27410,7 +27592,7 @@
         <v>3891</v>
       </c>
       <c r="E93" s="41" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="F93" s="49"/>
       <c r="G93" s="41"/>
@@ -27430,7 +27612,7 @@
         <v>3892</v>
       </c>
       <c r="E94" s="41" t="s">
-        <v>3979</v>
+        <v>3978</v>
       </c>
       <c r="F94" s="49"/>
       <c r="G94" s="41"/>
@@ -27450,7 +27632,7 @@
         <v>3893</v>
       </c>
       <c r="E95" s="41" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="F95" s="49"/>
       <c r="G95" s="41"/>
@@ -27486,7 +27668,7 @@
         <v>3894</v>
       </c>
       <c r="E97" s="41" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
       <c r="F97" s="49"/>
       <c r="G97" s="41"/>
@@ -27506,7 +27688,7 @@
         <v>3895</v>
       </c>
       <c r="E98" s="41" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="F98" s="49"/>
       <c r="G98" s="41"/>
@@ -27526,7 +27708,7 @@
         <v>3896</v>
       </c>
       <c r="E99" s="41" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
       <c r="F99" s="49"/>
       <c r="G99" s="41"/>
@@ -27546,7 +27728,7 @@
         <v>3897</v>
       </c>
       <c r="E100" s="41" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="F100" s="41"/>
       <c r="G100" s="41"/>
@@ -27566,7 +27748,7 @@
         <v>3898</v>
       </c>
       <c r="E101" s="41" t="s">
-        <v>3984</v>
+        <v>3983</v>
       </c>
       <c r="F101" s="49"/>
       <c r="G101" s="41"/>
@@ -27586,7 +27768,7 @@
         <v>3899</v>
       </c>
       <c r="E102" s="41" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="F102" s="49"/>
       <c r="G102" s="41"/>
@@ -27606,7 +27788,7 @@
         <v>3900</v>
       </c>
       <c r="E103" s="41" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="F103" s="49"/>
       <c r="G103" s="41"/>
@@ -27626,7 +27808,7 @@
         <v>3901</v>
       </c>
       <c r="E104" s="41" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="F104" s="49"/>
       <c r="G104" s="41"/>
@@ -27646,7 +27828,7 @@
         <v>3902</v>
       </c>
       <c r="E105" s="41" t="s">
-        <v>3988</v>
+        <v>3987</v>
       </c>
       <c r="F105" s="49"/>
       <c r="G105" s="41"/>
@@ -27666,7 +27848,7 @@
         <v>3903</v>
       </c>
       <c r="E106" s="41" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="F106" s="49"/>
       <c r="G106" s="41"/>
@@ -27686,7 +27868,7 @@
         <v>3904</v>
       </c>
       <c r="E107" s="41" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="F107" s="49"/>
       <c r="G107" s="41"/>
@@ -27706,7 +27888,7 @@
         <v>3905</v>
       </c>
       <c r="E108" s="41" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
       <c r="F108" s="49"/>
       <c r="G108" s="41"/>
@@ -27726,7 +27908,7 @@
         <v>3906</v>
       </c>
       <c r="E109" s="41" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="F109" s="50"/>
       <c r="G109" s="41"/>
@@ -27746,7 +27928,7 @@
         <v>3907</v>
       </c>
       <c r="E110" s="41" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="F110" s="49"/>
       <c r="G110" s="41"/>
@@ -27766,7 +27948,7 @@
         <v>3908</v>
       </c>
       <c r="E111" s="41" t="s">
-        <v>3993</v>
+        <v>3992</v>
       </c>
       <c r="F111" s="49"/>
       <c r="G111" s="41"/>
@@ -27786,7 +27968,7 @@
         <v>3909</v>
       </c>
       <c r="E112" s="41" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="F112" s="49"/>
       <c r="G112" s="41"/>
@@ -27806,7 +27988,7 @@
         <v>3910</v>
       </c>
       <c r="E113" s="41" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
       <c r="F113" s="49"/>
       <c r="G113" s="41"/>
@@ -27826,7 +28008,7 @@
         <v>3911</v>
       </c>
       <c r="E114" s="41" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="F114" s="49"/>
       <c r="G114" s="41"/>
@@ -27918,7 +28100,7 @@
       <c r="M119" s="52"/>
       <c r="N119" s="52"/>
     </row>
-    <row r="120" spans="1:14" ht="24.4">
+    <row r="120" spans="1:14" ht="24">
       <c r="A120" s="52"/>
       <c r="B120" s="52"/>
       <c r="C120" s="41"/>
@@ -27946,7 +28128,7 @@
         <v>3912</v>
       </c>
       <c r="E121" s="41" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="F121" s="49"/>
       <c r="G121" s="43"/>
@@ -27966,7 +28148,7 @@
         <v>3913</v>
       </c>
       <c r="E122" s="41" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="F122" s="50"/>
       <c r="G122" s="43"/>
@@ -27986,7 +28168,7 @@
         <v>3889</v>
       </c>
       <c r="E123" s="41" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="F123" s="41"/>
       <c r="G123" s="43"/>
@@ -28006,7 +28188,7 @@
         <v>3891</v>
       </c>
       <c r="E124" s="41" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="F124" s="41"/>
       <c r="G124" s="43"/>
@@ -28042,7 +28224,7 @@
         <v>3914</v>
       </c>
       <c r="E126" s="41" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="F126" s="49"/>
       <c r="G126" s="43"/>
@@ -28062,7 +28244,7 @@
         <v>3915</v>
       </c>
       <c r="E127" s="41" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="F127" s="41"/>
       <c r="G127" s="43"/>
@@ -28082,7 +28264,7 @@
         <v>3916</v>
       </c>
       <c r="E128" s="41" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="F128" s="49"/>
       <c r="G128" s="43"/>
@@ -28102,7 +28284,7 @@
         <v>3917</v>
       </c>
       <c r="E129" s="41" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="F129" s="41"/>
       <c r="G129" s="43"/>
@@ -28122,7 +28304,7 @@
         <v>3918</v>
       </c>
       <c r="E130" s="41" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
       <c r="F130" s="49"/>
       <c r="G130" s="43"/>
@@ -28142,7 +28324,7 @@
         <v>3919</v>
       </c>
       <c r="E131" s="41" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
       <c r="F131" s="49"/>
       <c r="G131" s="43"/>
@@ -28162,7 +28344,7 @@
         <v>3920</v>
       </c>
       <c r="E132" s="41" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="F132" s="49"/>
       <c r="G132" s="43"/>
@@ -28182,7 +28364,7 @@
         <v>3921</v>
       </c>
       <c r="E133" s="41" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="F133" s="49"/>
       <c r="G133" s="43"/>
@@ -28386,7 +28568,7 @@
       <c r="M145" s="52"/>
       <c r="N145" s="52"/>
     </row>
-    <row r="146" spans="1:14" ht="24.4">
+    <row r="146" spans="1:14" ht="24">
       <c r="A146" s="41"/>
       <c r="B146" s="41"/>
       <c r="C146" s="41"/>
@@ -28452,7 +28634,7 @@
       <c r="M149" s="52"/>
       <c r="N149" s="52"/>
     </row>
-    <row r="150" spans="1:14" ht="24.4">
+    <row r="150" spans="1:14" ht="24">
       <c r="A150" s="41"/>
       <c r="B150" s="41"/>
       <c r="C150" s="41"/>
@@ -28494,7 +28676,7 @@
         <v>3920</v>
       </c>
       <c r="E152" s="41" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="F152" s="49"/>
       <c r="G152" s="41"/>
@@ -28514,7 +28696,7 @@
         <v>3922</v>
       </c>
       <c r="E153" s="41" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="F153" s="49"/>
       <c r="G153" s="41"/>
@@ -28534,7 +28716,7 @@
         <v>3914</v>
       </c>
       <c r="E154" s="41" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="F154" s="49"/>
       <c r="G154" s="41"/>
@@ -28554,7 +28736,7 @@
         <v>3923</v>
       </c>
       <c r="E155" s="41" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="F155" s="49"/>
       <c r="G155" s="41"/>
@@ -28574,7 +28756,7 @@
         <v>3924</v>
       </c>
       <c r="E156" s="41" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="F156" s="49"/>
       <c r="G156" s="41"/>
@@ -28594,7 +28776,7 @@
         <v>3925</v>
       </c>
       <c r="E157" s="41" t="s">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="F157" s="49"/>
       <c r="G157" s="41"/>
@@ -28614,7 +28796,7 @@
         <v>3926</v>
       </c>
       <c r="E158" s="41" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
       <c r="F158" s="49"/>
       <c r="G158" s="41"/>
@@ -28650,7 +28832,7 @@
         <v>3927</v>
       </c>
       <c r="E160" s="41" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="F160" s="49"/>
       <c r="G160" s="41"/>
@@ -28670,7 +28852,7 @@
         <v>3928</v>
       </c>
       <c r="E161" s="41" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="F161" s="49"/>
       <c r="G161" s="41"/>
@@ -28986,7 +29168,7 @@
       <c r="M180" s="52"/>
       <c r="N180" s="52"/>
     </row>
-    <row r="181" spans="1:14" ht="24.4">
+    <row r="181" spans="1:14" ht="24">
       <c r="A181" s="41"/>
       <c r="B181" s="52"/>
       <c r="C181" s="41"/>
@@ -29022,7 +29204,7 @@
       <c r="M182" s="52"/>
       <c r="N182" s="52"/>
     </row>
-    <row r="183" spans="1:14" ht="65.55" customHeight="1">
+    <row r="183" spans="1:14" ht="65.5" customHeight="1">
       <c r="A183" s="41"/>
       <c r="B183" s="52"/>
       <c r="C183" s="41"/>
@@ -29050,7 +29232,7 @@
         <v>3930</v>
       </c>
       <c r="E184" s="41" t="s">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="F184" s="53"/>
       <c r="G184" s="52"/>
@@ -29062,7 +29244,7 @@
       <c r="M184" s="52"/>
       <c r="N184" s="52"/>
     </row>
-    <row r="185" spans="1:14" ht="56.55" customHeight="1">
+    <row r="185" spans="1:14" ht="56.5" customHeight="1">
       <c r="A185" s="41"/>
       <c r="B185" s="52"/>
       <c r="C185" s="41"/>
@@ -29082,7 +29264,7 @@
       <c r="M185" s="52"/>
       <c r="N185" s="52"/>
     </row>
-    <row r="186" spans="1:14" ht="24.4">
+    <row r="186" spans="1:14" ht="24">
       <c r="A186" s="41"/>
       <c r="B186" s="52"/>
       <c r="C186" s="41"/>
@@ -29090,7 +29272,7 @@
         <v>3932</v>
       </c>
       <c r="E186" s="41" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="F186" s="54"/>
       <c r="G186" s="52"/>
@@ -29126,7 +29308,7 @@
       <c r="M187" s="52"/>
       <c r="N187" s="52"/>
     </row>
-    <row r="188" spans="1:14" ht="24.4">
+    <row r="188" spans="1:14" ht="24">
       <c r="A188" s="41"/>
       <c r="B188" s="41"/>
       <c r="C188" s="41"/>
@@ -29210,7 +29392,7 @@
       <c r="M192" s="41"/>
       <c r="N192" s="41"/>
     </row>
-    <row r="193" spans="1:14" s="45" customFormat="1" ht="24.4">
+    <row r="193" spans="1:14" s="45" customFormat="1" ht="24">
       <c r="A193" s="41"/>
       <c r="B193" s="41"/>
       <c r="C193" s="41"/>
@@ -29270,7 +29452,7 @@
         <v>3934</v>
       </c>
       <c r="E196" s="41" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="F196" s="41"/>
       <c r="G196" s="41"/>
@@ -29290,7 +29472,7 @@
         <v>3935</v>
       </c>
       <c r="E197" s="41" t="s">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="F197" s="41"/>
       <c r="G197" s="41"/>
@@ -29310,7 +29492,7 @@
         <v>3936</v>
       </c>
       <c r="E198" s="41" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="F198" s="41"/>
       <c r="G198" s="41"/>
@@ -29330,7 +29512,7 @@
         <v>3937</v>
       </c>
       <c r="E199" s="41" t="s">
-        <v>4019</v>
+        <v>4018</v>
       </c>
       <c r="F199" s="41"/>
       <c r="G199" s="41"/>
@@ -29363,10 +29545,10 @@
       <c r="B201" s="41"/>
       <c r="C201" s="41"/>
       <c r="D201" s="41" t="s">
+        <v>3975</v>
+      </c>
+      <c r="E201" s="65" t="s">
         <v>3976</v>
-      </c>
-      <c r="E201" s="65" t="s">
-        <v>3977</v>
       </c>
       <c r="F201" s="41"/>
       <c r="G201" s="41"/>
@@ -29378,7 +29560,7 @@
       <c r="M201" s="41"/>
       <c r="N201" s="41"/>
     </row>
-    <row r="202" spans="1:14" s="45" customFormat="1" ht="45">
+    <row r="202" spans="1:14" s="45" customFormat="1" ht="49.5">
       <c r="A202" s="41"/>
       <c r="B202" s="41"/>
       <c r="C202" s="41"/>
@@ -29406,7 +29588,7 @@
         <v>3938</v>
       </c>
       <c r="E203" s="41" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="F203" s="41"/>
       <c r="G203" s="41"/>
@@ -29426,7 +29608,7 @@
         <v>3939</v>
       </c>
       <c r="E204" s="41" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="F204" s="41"/>
       <c r="G204" s="41"/>
@@ -29446,7 +29628,7 @@
         <v>3887</v>
       </c>
       <c r="E205" s="41" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="F205" s="41"/>
       <c r="G205" s="41"/>
@@ -29490,7 +29672,7 @@
       <c r="M207" s="41"/>
       <c r="N207" s="41"/>
     </row>
-    <row r="208" spans="1:14" s="45" customFormat="1" ht="24.4">
+    <row r="208" spans="1:14" s="45" customFormat="1" ht="24">
       <c r="A208" s="41"/>
       <c r="B208" s="41"/>
       <c r="C208" s="41"/>
@@ -29533,7 +29715,7 @@
     <row r="216" spans="1:14" s="45" customFormat="1"/>
     <row r="217" spans="1:14" s="45" customFormat="1"/>
     <row r="218" spans="1:14" s="45" customFormat="1"/>
-    <row r="220" spans="1:14" ht="24.4">
+    <row r="220" spans="1:14" ht="24">
       <c r="I220" s="57"/>
     </row>
   </sheetData>
@@ -29565,7 +29747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B46"/>
   <sheetViews>
@@ -29573,12 +29755,12 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="24.46484375" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.15">
+    <row r="1" spans="1:2" ht="13">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -29586,7 +29768,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13.15">
+    <row r="2" spans="1:2" ht="13">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -29674,7 +29856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13.15">
+    <row r="13" spans="1:2" ht="13">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -29714,7 +29896,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="13.15">
+    <row r="18" spans="1:2" ht="13">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -29722,7 +29904,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="13.15">
+    <row r="19" spans="1:2" ht="13">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -29754,7 +29936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="13.15">
+    <row r="23" spans="1:2" ht="13">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -29770,7 +29952,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="13.15">
+    <row r="25" spans="1:2" ht="13">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -29786,7 +29968,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="13.15">
+    <row r="27" spans="1:2" ht="13">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -29826,7 +30008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="13.15">
+    <row r="32" spans="1:2" ht="13">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -29890,7 +30072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="13.15">
+    <row r="40" spans="1:2" ht="13">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -29898,7 +30080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="13.15">
+    <row r="41" spans="1:2" ht="13">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -29914,7 +30096,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="13.15">
+    <row r="43" spans="1:2" ht="13">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -29954,7 +30136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet5" filterMode="1"/>
   <dimension ref="A1:R1140"/>
   <sheetViews>
@@ -29963,20 +30145,20 @@
       <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.73046875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.796875" style="40" customWidth="1"/>
-    <col min="4" max="4" width="13.46484375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="80.53125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="41.53125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="23.73046875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.796875" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="19.19921875" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="20.19921875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.19921875" style="3"/>
+    <col min="1" max="1" width="20.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="80.54296875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="41.54296875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23.7265625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.81640625" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1796875" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1796875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
@@ -55937,7 +56119,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1140">
+  <autoFilter ref="A1:K1140" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="App name/Word worth special attention"/>
@@ -56055,10 +56237,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F554" r:id="rId1" display="http://en.wikipedia.org/wiki/Lowercase"/>
-    <hyperlink ref="F1062" r:id="rId2" display="http://en.wikipedia.org/wiki/Lowercase"/>
-    <hyperlink ref="F711" r:id="rId3" display="http://en.wikipedia.org/wiki/Pixel"/>
-    <hyperlink ref="F714" r:id="rId4" display="http://en.wikipedia.org/wiki/Playlist"/>
+    <hyperlink ref="F554" r:id="rId1" display="http://en.wikipedia.org/wiki/Lowercase" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="F1062" r:id="rId2" display="http://en.wikipedia.org/wiki/Lowercase" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="F711" r:id="rId3" display="http://en.wikipedia.org/wiki/Pixel" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="F714" r:id="rId4" display="http://en.wikipedia.org/wiki/Playlist" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/资料/翻译/V3R1多语言单品翻译英文字段翻译.xlsx
+++ b/资料/翻译/V3R1多语言单品翻译英文字段翻译.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Project\small-apple\资料\翻译\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F77824-4B06-4AFE-A242-39E69EB2D91B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0EB7D1-E3A0-4F1E-8BA1-2CDE3912E7BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10490" yWindow="1250" windowWidth="16200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="To Be Translated" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7645" uniqueCount="4020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7625" uniqueCount="3998">
   <si>
     <t>Settings</t>
   </si>
@@ -23069,15 +23069,6 @@
     <t>指南</t>
   </si>
   <si>
-    <t>喜爱</t>
-  </si>
-  <si>
-    <t>快进</t>
-  </si>
-  <si>
-    <t>冻结</t>
-  </si>
-  <si>
     <t>绿</t>
   </si>
   <si>
@@ -23093,24 +23084,9 @@
     <t>播放</t>
   </si>
   <si>
-    <t>上页</t>
-  </si>
-  <si>
-    <t>录制</t>
-  </si>
-  <si>
-    <t>回看</t>
-  </si>
-  <si>
     <t>红</t>
   </si>
   <si>
-    <t>快退</t>
-  </si>
-  <si>
-    <t>停止</t>
-  </si>
-  <si>
     <t>黄</t>
   </si>
   <si>
@@ -23156,9 +23132,6 @@
     <t>摇头</t>
   </si>
   <si>
-    <t>负离子</t>
-  </si>
-  <si>
     <t>静音</t>
   </si>
   <si>
@@ -23204,12 +23177,6 @@
     <t>No match</t>
   </si>
   <si>
-    <t>Press the key button for a long time, and you can match one by one continuously.</t>
-  </si>
-  <si>
-    <t>设备删除后，若再次使用，需重新添加。</t>
-  </si>
-  <si>
     <t xml:space="preserve">Online. </t>
   </si>
   <si>
@@ -23217,21 +23184,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fan. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Before matching, please turn on the power of the TV. If the TV is on or off, indicating that the match is successful, click "next" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long press the button to learn, enter the learning state, this key will flash, waiting to learn. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learning failure, please press the button you want to learn again, re-learn. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the learning is successful, you can click the button to test whether it is correct, and if not, you can learn again. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">After the device is removed, if it is used again, it needs to be added again. </t>
   </si>
   <si>
     <t>A/C</t>
@@ -23246,26 +23198,10 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Done</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Power</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>FF</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>STOP</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Setbox Power</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -23286,26 +23222,10 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>V.Swing</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>H.Swing</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Temp</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Time Length</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancel the Timing</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Timer</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -23330,13 +23250,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>此操作会清除手机和智能家居云中有关该设备的所有数据。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>This clears all data about the device in the mobile phone and smart home cloud.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Setbox. </t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -23357,14 +23270,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Love</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frozen</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Green</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -23385,22 +23290,10 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Last page</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Look back</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Red.</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Get back</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Yellow</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -23429,10 +23322,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Delete</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Search</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -23490,22 +23379,10 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Negative ion</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>cancel</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Add remote control. </t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Aim the remote control at the little apple within 1 meter, press the corresponding button, and wait for the study to be completed. </t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Remote name</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -23515,6 +23392,58 @@
   </si>
   <si>
     <t>com</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Please turn on the power of the TV. If the TV is on or off, To indicate successful match,click "next" </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long press the left and right keys to continuously match one by one</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>CANCEL</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Long press the button to learn,this key will flash, waiting to learn. </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Aim the remote control at the little apple within 1 meter,  wait for the study to be completed. </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning failure, please press the button you want to learn again, re-learn. </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> learning  successful, you can click the button to test whether it is correct, and if not, you can learn again. </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>此操作会清除手机和智能家居云中有关该设备的所有数据。设备删除后，若再次使用，需重新添加。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>This will erase all data for this device from the device and cloud.You will need to add the device again to continue using it.</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>V.S</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>H.S</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delay Off</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMOVE</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -24762,8 +24691,8 @@
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>744450</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1500</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>64823</xdr:rowOff>
     </xdr:to>
@@ -25004,8 +24933,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>3240000</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>73381</xdr:rowOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>187681</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -25052,8 +24981,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>687300</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>74469</xdr:rowOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>188769</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -25094,13 +25023,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>61913</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>711113</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>99637</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -25142,13 +25071,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>3244763</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>65536</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -25190,13 +25119,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>3244763</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>57933</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -25238,13 +25167,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>725400</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>125477</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -25286,13 +25215,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>576262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>3430501</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>4647</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -25334,13 +25263,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>719137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>658725</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>708149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -25382,14 +25311,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>61913</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>290514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>3301913</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>62426</xdr:rowOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>189426</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -25430,14 +25359,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>233367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>649200</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>53559</xdr:rowOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>180559</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -25478,13 +25407,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>3263813</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>646207</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -25526,13 +25455,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>649201</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>385511</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -25574,14 +25503,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>3240000</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>75299</xdr:rowOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>146736</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -25943,12 +25872,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N220"/>
+  <dimension ref="A1:N210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <selection pane="bottomLeft" activeCell="E190" sqref="E190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="16.5"/>
@@ -25974,7 +25903,7 @@
         <v>3834</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>4004</v>
+        <v>3972</v>
       </c>
       <c r="D1" s="42" t="s">
         <v>3839</v>
@@ -26030,7 +25959,7 @@
         <v>3864</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>3943</v>
+        <v>3932</v>
       </c>
       <c r="F3" s="49"/>
       <c r="G3" s="41"/>
@@ -26050,7 +25979,7 @@
         <v>3865</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>4005</v>
+        <v>3973</v>
       </c>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
@@ -26070,7 +25999,7 @@
         <v>3866</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>4006</v>
+        <v>3974</v>
       </c>
       <c r="F5" s="49"/>
       <c r="G5" s="41"/>
@@ -26090,7 +26019,7 @@
         <v>3867</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>4007</v>
+        <v>3975</v>
       </c>
       <c r="F6" s="49"/>
       <c r="G6" s="41"/>
@@ -26124,7 +26053,7 @@
         <v>3868</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>3977</v>
+        <v>3951</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="41"/>
@@ -26144,7 +26073,7 @@
         <v>3869</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>4008</v>
+        <v>3976</v>
       </c>
       <c r="F9" s="49"/>
       <c r="G9" s="41"/>
@@ -26164,7 +26093,7 @@
         <v>3870</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>3951</v>
+        <v>3935</v>
       </c>
       <c r="F10" s="49"/>
       <c r="G10" s="41"/>
@@ -26184,7 +26113,7 @@
         <v>3871</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>3944</v>
+        <v>3933</v>
       </c>
       <c r="F11" s="49"/>
       <c r="G11" s="41"/>
@@ -26204,7 +26133,7 @@
         <v>3872</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>3945</v>
+        <v>3934</v>
       </c>
       <c r="F12" s="49"/>
       <c r="G12" s="41"/>
@@ -26224,7 +26153,7 @@
         <v>3873</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>3952</v>
+        <v>3936</v>
       </c>
       <c r="F13" s="49"/>
       <c r="G13" s="41"/>
@@ -26258,7 +26187,7 @@
         <v>3874</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>4015</v>
+        <v>3981</v>
       </c>
       <c r="F15" s="49"/>
       <c r="G15" s="41"/>
@@ -26278,7 +26207,7 @@
         <v>3875</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>3953</v>
+        <v>3937</v>
       </c>
       <c r="F16" s="49"/>
       <c r="G16" s="41"/>
@@ -26560,7 +26489,7 @@
         <v>3876</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>4003</v>
+        <v>3971</v>
       </c>
       <c r="F33" s="50"/>
       <c r="G33" s="41"/>
@@ -26580,7 +26509,7 @@
         <v>3877</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>4009</v>
+        <v>3977</v>
       </c>
       <c r="F34" s="50"/>
       <c r="G34" s="41"/>
@@ -26616,7 +26545,7 @@
         <v>3878</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>4002</v>
+        <v>3970</v>
       </c>
       <c r="F36" s="50"/>
       <c r="G36" s="41"/>
@@ -26636,7 +26565,7 @@
         <v>3879</v>
       </c>
       <c r="E37" s="41" t="s">
-        <v>4001</v>
+        <v>3969</v>
       </c>
       <c r="F37" s="49"/>
       <c r="G37" s="41"/>
@@ -26656,7 +26585,7 @@
         <v>3880</v>
       </c>
       <c r="E38" s="41" t="s">
-        <v>3940</v>
+        <v>3931</v>
       </c>
       <c r="F38" s="50"/>
       <c r="G38" s="41"/>
@@ -26676,7 +26605,7 @@
         <v>3881</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>4019</v>
+        <v>3984</v>
       </c>
       <c r="F39" s="49"/>
       <c r="G39" s="41"/>
@@ -27086,7 +27015,7 @@
         <v>3882</v>
       </c>
       <c r="E64" s="41" t="s">
-        <v>3996</v>
+        <v>3965</v>
       </c>
       <c r="F64" s="49"/>
       <c r="G64" s="41"/>
@@ -27106,7 +27035,7 @@
         <v>3883</v>
       </c>
       <c r="E65" s="41" t="s">
-        <v>3946</v>
+        <v>3985</v>
       </c>
       <c r="F65" s="50"/>
       <c r="G65" s="41"/>
@@ -27126,7 +27055,7 @@
         <v>3884</v>
       </c>
       <c r="E66" s="41" t="s">
-        <v>3941</v>
+        <v>3986</v>
       </c>
       <c r="F66" s="49"/>
       <c r="G66" s="41"/>
@@ -27146,7 +27075,7 @@
         <v>3885</v>
       </c>
       <c r="E67" s="41" t="s">
-        <v>3997</v>
+        <v>3966</v>
       </c>
       <c r="F67" s="50"/>
       <c r="G67" s="41"/>
@@ -27166,7 +27095,7 @@
         <v>3886</v>
       </c>
       <c r="E68" s="41" t="s">
-        <v>4010</v>
+        <v>3978</v>
       </c>
       <c r="F68" s="49"/>
       <c r="G68" s="41"/>
@@ -27186,7 +27115,7 @@
         <v>3887</v>
       </c>
       <c r="E69" s="41" t="s">
-        <v>3954</v>
+        <v>3948</v>
       </c>
       <c r="F69" s="49"/>
       <c r="G69" s="41"/>
@@ -27532,7 +27461,7 @@
         <v>3888</v>
       </c>
       <c r="E90" s="41" t="s">
-        <v>3955</v>
+        <v>3938</v>
       </c>
       <c r="F90" s="49"/>
       <c r="G90" s="41"/>
@@ -27552,7 +27481,7 @@
         <v>3889</v>
       </c>
       <c r="E91" s="41" t="s">
-        <v>4011</v>
+        <v>3979</v>
       </c>
       <c r="F91" s="49"/>
       <c r="G91" s="41"/>
@@ -27572,7 +27501,7 @@
         <v>3890</v>
       </c>
       <c r="E92" s="41" t="s">
-        <v>3995</v>
+        <v>3964</v>
       </c>
       <c r="F92" s="49"/>
       <c r="G92" s="41"/>
@@ -27592,7 +27521,7 @@
         <v>3891</v>
       </c>
       <c r="E93" s="41" t="s">
-        <v>3994</v>
+        <v>3963</v>
       </c>
       <c r="F93" s="49"/>
       <c r="G93" s="41"/>
@@ -27612,7 +27541,7 @@
         <v>3892</v>
       </c>
       <c r="E94" s="41" t="s">
-        <v>3978</v>
+        <v>3952</v>
       </c>
       <c r="F94" s="49"/>
       <c r="G94" s="41"/>
@@ -27632,7 +27561,7 @@
         <v>3893</v>
       </c>
       <c r="E95" s="41" t="s">
-        <v>3979</v>
+        <v>3953</v>
       </c>
       <c r="F95" s="49"/>
       <c r="G95" s="41"/>
@@ -27668,7 +27597,7 @@
         <v>3894</v>
       </c>
       <c r="E97" s="41" t="s">
-        <v>3980</v>
+        <v>3954</v>
       </c>
       <c r="F97" s="49"/>
       <c r="G97" s="41"/>
@@ -27688,7 +27617,7 @@
         <v>3895</v>
       </c>
       <c r="E98" s="41" t="s">
-        <v>3981</v>
+        <v>3955</v>
       </c>
       <c r="F98" s="49"/>
       <c r="G98" s="41"/>
@@ -27708,7 +27637,7 @@
         <v>3896</v>
       </c>
       <c r="E99" s="41" t="s">
-        <v>3982</v>
+        <v>3956</v>
       </c>
       <c r="F99" s="49"/>
       <c r="G99" s="41"/>
@@ -27728,9 +27657,9 @@
         <v>3897</v>
       </c>
       <c r="E100" s="41" t="s">
-        <v>3956</v>
-      </c>
-      <c r="F100" s="41"/>
+        <v>3957</v>
+      </c>
+      <c r="F100" s="49"/>
       <c r="G100" s="41"/>
       <c r="H100" s="41"/>
       <c r="I100" s="41"/>
@@ -27748,7 +27677,7 @@
         <v>3898</v>
       </c>
       <c r="E101" s="41" t="s">
-        <v>3983</v>
+        <v>3958</v>
       </c>
       <c r="F101" s="49"/>
       <c r="G101" s="41"/>
@@ -27768,7 +27697,7 @@
         <v>3899</v>
       </c>
       <c r="E102" s="41" t="s">
-        <v>3984</v>
+        <v>3959</v>
       </c>
       <c r="F102" s="49"/>
       <c r="G102" s="41"/>
@@ -27788,7 +27717,7 @@
         <v>3900</v>
       </c>
       <c r="E103" s="41" t="s">
-        <v>3985</v>
+        <v>3960</v>
       </c>
       <c r="F103" s="49"/>
       <c r="G103" s="41"/>
@@ -27808,7 +27737,7 @@
         <v>3901</v>
       </c>
       <c r="E104" s="41" t="s">
-        <v>3986</v>
+        <v>3961</v>
       </c>
       <c r="F104" s="49"/>
       <c r="G104" s="41"/>
@@ -27828,7 +27757,7 @@
         <v>3902</v>
       </c>
       <c r="E105" s="41" t="s">
-        <v>3987</v>
+        <v>3962</v>
       </c>
       <c r="F105" s="49"/>
       <c r="G105" s="41"/>
@@ -27848,7 +27777,7 @@
         <v>3903</v>
       </c>
       <c r="E106" s="41" t="s">
-        <v>3988</v>
+        <v>3939</v>
       </c>
       <c r="F106" s="49"/>
       <c r="G106" s="41"/>
@@ -27864,12 +27793,8 @@
       <c r="A107" s="41"/>
       <c r="B107" s="41"/>
       <c r="C107" s="41"/>
-      <c r="D107" s="41" t="s">
-        <v>3904</v>
-      </c>
-      <c r="E107" s="41" t="s">
-        <v>3989</v>
-      </c>
+      <c r="D107" s="41"/>
+      <c r="E107" s="41"/>
       <c r="F107" s="49"/>
       <c r="G107" s="41"/>
       <c r="H107" s="41"/>
@@ -27884,13 +27809,9 @@
       <c r="A108" s="41"/>
       <c r="B108" s="41"/>
       <c r="C108" s="41"/>
-      <c r="D108" s="41" t="s">
-        <v>3905</v>
-      </c>
-      <c r="E108" s="41" t="s">
-        <v>3957</v>
-      </c>
-      <c r="F108" s="49"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="41"/>
+      <c r="F108" s="50"/>
       <c r="G108" s="41"/>
       <c r="H108" s="41"/>
       <c r="I108" s="41"/>
@@ -27904,13 +27825,9 @@
       <c r="A109" s="41"/>
       <c r="B109" s="41"/>
       <c r="C109" s="41"/>
-      <c r="D109" s="41" t="s">
-        <v>3906</v>
-      </c>
-      <c r="E109" s="41" t="s">
-        <v>3990</v>
-      </c>
-      <c r="F109" s="50"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="49"/>
       <c r="G109" s="41"/>
       <c r="H109" s="41"/>
       <c r="I109" s="41"/>
@@ -27924,13 +27841,9 @@
       <c r="A110" s="41"/>
       <c r="B110" s="41"/>
       <c r="C110" s="41"/>
-      <c r="D110" s="41" t="s">
-        <v>3907</v>
-      </c>
-      <c r="E110" s="41" t="s">
-        <v>3991</v>
-      </c>
-      <c r="F110" s="49"/>
+      <c r="D110" s="41"/>
+      <c r="E110" s="41"/>
+      <c r="F110" s="51"/>
       <c r="G110" s="41"/>
       <c r="H110" s="41"/>
       <c r="I110" s="41"/>
@@ -27944,12 +27857,8 @@
       <c r="A111" s="41"/>
       <c r="B111" s="41"/>
       <c r="C111" s="41"/>
-      <c r="D111" s="41" t="s">
-        <v>3908</v>
-      </c>
-      <c r="E111" s="41" t="s">
-        <v>3992</v>
-      </c>
+      <c r="D111" s="41"/>
+      <c r="E111" s="41"/>
       <c r="F111" s="49"/>
       <c r="G111" s="41"/>
       <c r="H111" s="41"/>
@@ -27960,177 +27869,193 @@
       <c r="M111" s="52"/>
       <c r="N111" s="52"/>
     </row>
-    <row r="112" spans="1:14">
-      <c r="A112" s="41"/>
-      <c r="B112" s="41"/>
+    <row r="112" spans="1:14" ht="24">
+      <c r="A112" s="52"/>
+      <c r="B112" s="52"/>
       <c r="C112" s="41"/>
-      <c r="D112" s="41" t="s">
-        <v>3909</v>
-      </c>
-      <c r="E112" s="41" t="s">
-        <v>3958</v>
-      </c>
-      <c r="F112" s="49"/>
-      <c r="G112" s="41"/>
-      <c r="H112" s="41"/>
-      <c r="I112" s="41"/>
+      <c r="D112" s="41"/>
+      <c r="E112" s="41"/>
+      <c r="F112" s="41"/>
+      <c r="G112" s="52"/>
+      <c r="H112" s="52"/>
+      <c r="I112" s="47" t="s">
+        <v>3853</v>
+      </c>
       <c r="J112" s="52"/>
       <c r="K112" s="52"/>
-      <c r="L112" s="52"/>
+      <c r="L112" s="61" t="s">
+        <v>3854</v>
+      </c>
       <c r="M112" s="52"/>
       <c r="N112" s="52"/>
     </row>
-    <row r="113" spans="1:14">
-      <c r="A113" s="41"/>
-      <c r="B113" s="41"/>
+    <row r="113" spans="1:14" s="58" customFormat="1">
+      <c r="A113" s="43"/>
+      <c r="B113" s="43"/>
       <c r="C113" s="41"/>
       <c r="D113" s="41" t="s">
-        <v>3910</v>
+        <v>3904</v>
       </c>
       <c r="E113" s="41" t="s">
-        <v>3993</v>
+        <v>3940</v>
       </c>
       <c r="F113" s="49"/>
-      <c r="G113" s="41"/>
-      <c r="H113" s="41"/>
-      <c r="I113" s="41"/>
-      <c r="J113" s="52"/>
-      <c r="K113" s="52"/>
-      <c r="L113" s="52"/>
-      <c r="M113" s="52"/>
-      <c r="N113" s="52"/>
-    </row>
-    <row r="114" spans="1:14">
-      <c r="A114" s="41"/>
-      <c r="B114" s="41"/>
+      <c r="G113" s="43"/>
+      <c r="H113" s="43"/>
+      <c r="I113" s="43"/>
+      <c r="J113" s="67"/>
+      <c r="K113" s="62"/>
+      <c r="L113" s="62"/>
+      <c r="M113" s="62"/>
+      <c r="N113" s="62"/>
+    </row>
+    <row r="114" spans="1:14" s="58" customFormat="1">
+      <c r="A114" s="43"/>
+      <c r="B114" s="43"/>
       <c r="C114" s="41"/>
       <c r="D114" s="41" t="s">
-        <v>3911</v>
+        <v>3905</v>
       </c>
       <c r="E114" s="41" t="s">
-        <v>3959</v>
-      </c>
-      <c r="F114" s="49"/>
-      <c r="G114" s="41"/>
-      <c r="H114" s="41"/>
-      <c r="I114" s="41"/>
-      <c r="J114" s="52"/>
-      <c r="K114" s="52"/>
-      <c r="L114" s="52"/>
-      <c r="M114" s="52"/>
-      <c r="N114" s="52"/>
-    </row>
-    <row r="115" spans="1:14">
-      <c r="A115" s="41"/>
-      <c r="B115" s="41"/>
+        <v>3941</v>
+      </c>
+      <c r="F114" s="50"/>
+      <c r="G114" s="43"/>
+      <c r="H114" s="43"/>
+      <c r="I114" s="43"/>
+      <c r="J114" s="68"/>
+      <c r="K114" s="62"/>
+      <c r="L114" s="62"/>
+      <c r="M114" s="62"/>
+      <c r="N114" s="62"/>
+    </row>
+    <row r="115" spans="1:14" s="58" customFormat="1">
+      <c r="A115" s="43"/>
+      <c r="B115" s="43"/>
       <c r="C115" s="41"/>
-      <c r="D115" s="41"/>
-      <c r="E115" s="41"/>
-      <c r="F115" s="49"/>
-      <c r="G115" s="41"/>
-      <c r="H115" s="41"/>
-      <c r="I115" s="41"/>
-      <c r="J115" s="52"/>
-      <c r="K115" s="52"/>
-      <c r="L115" s="52"/>
-      <c r="M115" s="52"/>
-      <c r="N115" s="52"/>
-    </row>
-    <row r="116" spans="1:14">
-      <c r="A116" s="41"/>
-      <c r="B116" s="41"/>
+      <c r="D115" s="41" t="s">
+        <v>3889</v>
+      </c>
+      <c r="E115" s="41" t="s">
+        <v>3979</v>
+      </c>
+      <c r="F115" s="41"/>
+      <c r="G115" s="43"/>
+      <c r="H115" s="43"/>
+      <c r="I115" s="43"/>
+      <c r="J115" s="67"/>
+      <c r="K115" s="62"/>
+      <c r="L115" s="62"/>
+      <c r="M115" s="62"/>
+      <c r="N115" s="62"/>
+    </row>
+    <row r="116" spans="1:14" s="58" customFormat="1">
+      <c r="A116" s="43"/>
+      <c r="B116" s="43"/>
       <c r="C116" s="41"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="41"/>
-      <c r="F116" s="50"/>
-      <c r="G116" s="41"/>
-      <c r="H116" s="41"/>
-      <c r="I116" s="41"/>
-      <c r="J116" s="52"/>
-      <c r="K116" s="52"/>
-      <c r="L116" s="52"/>
-      <c r="M116" s="52"/>
-      <c r="N116" s="52"/>
-    </row>
-    <row r="117" spans="1:14">
-      <c r="A117" s="41"/>
-      <c r="B117" s="41"/>
+      <c r="D116" s="41" t="s">
+        <v>3891</v>
+      </c>
+      <c r="E116" s="41" t="s">
+        <v>3963</v>
+      </c>
+      <c r="F116" s="41"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="43"/>
+      <c r="I116" s="43"/>
+      <c r="J116" s="67"/>
+      <c r="K116" s="62"/>
+      <c r="L116" s="62"/>
+      <c r="M116" s="62"/>
+      <c r="N116" s="62"/>
+    </row>
+    <row r="117" spans="1:14" s="58" customFormat="1">
+      <c r="A117" s="43"/>
+      <c r="B117" s="43"/>
       <c r="C117" s="41"/>
-      <c r="D117" s="41"/>
-      <c r="E117" s="41"/>
-      <c r="F117" s="49"/>
-      <c r="G117" s="41"/>
-      <c r="H117" s="41"/>
-      <c r="I117" s="41"/>
-      <c r="J117" s="52"/>
-      <c r="K117" s="52"/>
-      <c r="L117" s="52"/>
-      <c r="M117" s="52"/>
-      <c r="N117" s="52"/>
-    </row>
-    <row r="118" spans="1:14">
-      <c r="A118" s="41"/>
-      <c r="B118" s="41"/>
+      <c r="D117" s="62"/>
+      <c r="E117" s="62"/>
+      <c r="F117" s="41"/>
+      <c r="G117" s="43"/>
+      <c r="H117" s="43"/>
+      <c r="I117" s="43"/>
+      <c r="J117" s="67"/>
+      <c r="K117" s="62"/>
+      <c r="L117" s="62"/>
+      <c r="M117" s="62"/>
+      <c r="N117" s="62"/>
+    </row>
+    <row r="118" spans="1:14" s="58" customFormat="1">
+      <c r="A118" s="43"/>
+      <c r="B118" s="43"/>
       <c r="C118" s="41"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="41"/>
-      <c r="F118" s="51"/>
-      <c r="G118" s="41"/>
-      <c r="H118" s="41"/>
-      <c r="I118" s="41"/>
-      <c r="J118" s="52"/>
-      <c r="K118" s="52"/>
-      <c r="L118" s="52"/>
-      <c r="M118" s="52"/>
-      <c r="N118" s="52"/>
-    </row>
-    <row r="119" spans="1:14">
-      <c r="A119" s="41"/>
-      <c r="B119" s="41"/>
+      <c r="D118" s="41" t="s">
+        <v>3906</v>
+      </c>
+      <c r="E118" s="41" t="s">
+        <v>3942</v>
+      </c>
+      <c r="F118" s="49"/>
+      <c r="G118" s="43"/>
+      <c r="H118" s="43"/>
+      <c r="I118" s="43"/>
+      <c r="J118" s="67"/>
+      <c r="K118" s="62"/>
+      <c r="L118" s="62"/>
+      <c r="M118" s="62"/>
+      <c r="N118" s="62"/>
+    </row>
+    <row r="119" spans="1:14" s="58" customFormat="1">
+      <c r="A119" s="43"/>
+      <c r="B119" s="43"/>
       <c r="C119" s="41"/>
-      <c r="D119" s="41"/>
-      <c r="E119" s="41"/>
-      <c r="F119" s="49"/>
-      <c r="G119" s="41"/>
-      <c r="H119" s="41"/>
-      <c r="I119" s="41"/>
-      <c r="J119" s="52"/>
-      <c r="K119" s="52"/>
-      <c r="L119" s="52"/>
-      <c r="M119" s="52"/>
-      <c r="N119" s="52"/>
-    </row>
-    <row r="120" spans="1:14" ht="24">
-      <c r="A120" s="52"/>
-      <c r="B120" s="52"/>
+      <c r="D119" s="41" t="s">
+        <v>3907</v>
+      </c>
+      <c r="E119" s="41" t="s">
+        <v>3943</v>
+      </c>
+      <c r="F119" s="41"/>
+      <c r="G119" s="43"/>
+      <c r="H119" s="43"/>
+      <c r="I119" s="43"/>
+      <c r="J119" s="67"/>
+      <c r="K119" s="62"/>
+      <c r="L119" s="62"/>
+      <c r="M119" s="62"/>
+      <c r="N119" s="62"/>
+    </row>
+    <row r="120" spans="1:14" s="58" customFormat="1">
+      <c r="A120" s="43"/>
+      <c r="B120" s="43"/>
       <c r="C120" s="41"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="52"/>
-      <c r="H120" s="52"/>
-      <c r="I120" s="47" t="s">
-        <v>3853</v>
-      </c>
-      <c r="J120" s="52"/>
-      <c r="K120" s="52"/>
-      <c r="L120" s="61" t="s">
-        <v>3854</v>
-      </c>
-      <c r="M120" s="52"/>
-      <c r="N120" s="52"/>
+      <c r="D120" s="41" t="s">
+        <v>3908</v>
+      </c>
+      <c r="E120" s="41" t="s">
+        <v>3994</v>
+      </c>
+      <c r="F120" s="49"/>
+      <c r="G120" s="43"/>
+      <c r="H120" s="43"/>
+      <c r="I120" s="43"/>
+      <c r="J120" s="67"/>
+      <c r="K120" s="62"/>
+      <c r="L120" s="62"/>
+      <c r="M120" s="62"/>
+      <c r="N120" s="62"/>
     </row>
     <row r="121" spans="1:14" s="58" customFormat="1">
       <c r="A121" s="43"/>
       <c r="B121" s="43"/>
       <c r="C121" s="41"/>
       <c r="D121" s="41" t="s">
-        <v>3912</v>
+        <v>3909</v>
       </c>
       <c r="E121" s="41" t="s">
-        <v>3960</v>
-      </c>
-      <c r="F121" s="49"/>
+        <v>3995</v>
+      </c>
+      <c r="F121" s="41"/>
       <c r="G121" s="43"/>
       <c r="H121" s="43"/>
       <c r="I121" s="43"/>
@@ -28145,16 +28070,16 @@
       <c r="B122" s="43"/>
       <c r="C122" s="41"/>
       <c r="D122" s="41" t="s">
-        <v>3913</v>
+        <v>3910</v>
       </c>
       <c r="E122" s="41" t="s">
-        <v>3961</v>
-      </c>
-      <c r="F122" s="50"/>
+        <v>3944</v>
+      </c>
+      <c r="F122" s="49"/>
       <c r="G122" s="43"/>
       <c r="H122" s="43"/>
       <c r="I122" s="43"/>
-      <c r="J122" s="68"/>
+      <c r="J122" s="67"/>
       <c r="K122" s="62"/>
       <c r="L122" s="62"/>
       <c r="M122" s="62"/>
@@ -28165,12 +28090,12 @@
       <c r="B123" s="43"/>
       <c r="C123" s="41"/>
       <c r="D123" s="41" t="s">
-        <v>3889</v>
+        <v>3911</v>
       </c>
       <c r="E123" s="41" t="s">
-        <v>4011</v>
-      </c>
-      <c r="F123" s="41"/>
+        <v>3987</v>
+      </c>
+      <c r="F123" s="49"/>
       <c r="G123" s="43"/>
       <c r="H123" s="43"/>
       <c r="I123" s="43"/>
@@ -28185,12 +28110,12 @@
       <c r="B124" s="43"/>
       <c r="C124" s="41"/>
       <c r="D124" s="41" t="s">
-        <v>3891</v>
+        <v>3912</v>
       </c>
       <c r="E124" s="41" t="s">
-        <v>3994</v>
-      </c>
-      <c r="F124" s="41"/>
+        <v>3938</v>
+      </c>
+      <c r="F124" s="49"/>
       <c r="G124" s="43"/>
       <c r="H124" s="43"/>
       <c r="I124" s="43"/>
@@ -28204,9 +28129,13 @@
       <c r="A125" s="43"/>
       <c r="B125" s="43"/>
       <c r="C125" s="41"/>
-      <c r="D125" s="62"/>
-      <c r="E125" s="62"/>
-      <c r="F125" s="41"/>
+      <c r="D125" s="41" t="s">
+        <v>3913</v>
+      </c>
+      <c r="E125" s="41" t="s">
+        <v>3996</v>
+      </c>
+      <c r="F125" s="49"/>
       <c r="G125" s="43"/>
       <c r="H125" s="43"/>
       <c r="I125" s="43"/>
@@ -28220,12 +28149,8 @@
       <c r="A126" s="43"/>
       <c r="B126" s="43"/>
       <c r="C126" s="41"/>
-      <c r="D126" s="41" t="s">
-        <v>3914</v>
-      </c>
-      <c r="E126" s="41" t="s">
-        <v>3962</v>
-      </c>
+      <c r="D126" s="41"/>
+      <c r="E126" s="41"/>
       <c r="F126" s="49"/>
       <c r="G126" s="43"/>
       <c r="H126" s="43"/>
@@ -28240,13 +28165,9 @@
       <c r="A127" s="43"/>
       <c r="B127" s="43"/>
       <c r="C127" s="41"/>
-      <c r="D127" s="41" t="s">
-        <v>3915</v>
-      </c>
-      <c r="E127" s="41" t="s">
-        <v>3963</v>
-      </c>
-      <c r="F127" s="41"/>
+      <c r="D127" s="41"/>
+      <c r="E127" s="41"/>
+      <c r="F127" s="49"/>
       <c r="G127" s="43"/>
       <c r="H127" s="43"/>
       <c r="I127" s="43"/>
@@ -28260,12 +28181,8 @@
       <c r="A128" s="43"/>
       <c r="B128" s="43"/>
       <c r="C128" s="41"/>
-      <c r="D128" s="41" t="s">
-        <v>3916</v>
-      </c>
-      <c r="E128" s="41" t="s">
-        <v>3964</v>
-      </c>
+      <c r="D128" s="41"/>
+      <c r="E128" s="41"/>
       <c r="F128" s="49"/>
       <c r="G128" s="43"/>
       <c r="H128" s="43"/>
@@ -28280,13 +28197,9 @@
       <c r="A129" s="43"/>
       <c r="B129" s="43"/>
       <c r="C129" s="41"/>
-      <c r="D129" s="41" t="s">
-        <v>3917</v>
-      </c>
-      <c r="E129" s="41" t="s">
-        <v>3965</v>
-      </c>
-      <c r="F129" s="41"/>
+      <c r="D129" s="41"/>
+      <c r="E129" s="41"/>
+      <c r="F129" s="49"/>
       <c r="G129" s="43"/>
       <c r="H129" s="43"/>
       <c r="I129" s="43"/>
@@ -28300,12 +28213,8 @@
       <c r="A130" s="43"/>
       <c r="B130" s="43"/>
       <c r="C130" s="41"/>
-      <c r="D130" s="41" t="s">
-        <v>3918</v>
-      </c>
-      <c r="E130" s="41" t="s">
-        <v>3966</v>
-      </c>
+      <c r="D130" s="41"/>
+      <c r="E130" s="41"/>
       <c r="F130" s="49"/>
       <c r="G130" s="43"/>
       <c r="H130" s="43"/>
@@ -28320,12 +28229,8 @@
       <c r="A131" s="43"/>
       <c r="B131" s="43"/>
       <c r="C131" s="41"/>
-      <c r="D131" s="41" t="s">
-        <v>3919</v>
-      </c>
-      <c r="E131" s="41" t="s">
-        <v>3968</v>
-      </c>
+      <c r="D131" s="41"/>
+      <c r="E131" s="41"/>
       <c r="F131" s="49"/>
       <c r="G131" s="43"/>
       <c r="H131" s="43"/>
@@ -28340,12 +28245,8 @@
       <c r="A132" s="43"/>
       <c r="B132" s="43"/>
       <c r="C132" s="41"/>
-      <c r="D132" s="41" t="s">
-        <v>3920</v>
-      </c>
-      <c r="E132" s="41" t="s">
-        <v>3955</v>
-      </c>
+      <c r="D132" s="41"/>
+      <c r="E132" s="41"/>
       <c r="F132" s="49"/>
       <c r="G132" s="43"/>
       <c r="H132" s="43"/>
@@ -28360,12 +28261,8 @@
       <c r="A133" s="43"/>
       <c r="B133" s="43"/>
       <c r="C133" s="41"/>
-      <c r="D133" s="41" t="s">
-        <v>3921</v>
-      </c>
-      <c r="E133" s="41" t="s">
-        <v>3967</v>
-      </c>
+      <c r="D133" s="41"/>
+      <c r="E133" s="41"/>
       <c r="F133" s="49"/>
       <c r="G133" s="43"/>
       <c r="H133" s="43"/>
@@ -28408,144 +28305,152 @@
       <c r="M135" s="62"/>
       <c r="N135" s="62"/>
     </row>
-    <row r="136" spans="1:14" s="58" customFormat="1">
-      <c r="A136" s="43"/>
-      <c r="B136" s="43"/>
-      <c r="C136" s="41"/>
+    <row r="136" spans="1:14">
+      <c r="A136" s="52"/>
+      <c r="B136" s="52"/>
+      <c r="C136" s="52"/>
       <c r="D136" s="41"/>
       <c r="E136" s="41"/>
-      <c r="F136" s="49"/>
-      <c r="G136" s="43"/>
-      <c r="H136" s="43"/>
-      <c r="I136" s="43"/>
-      <c r="J136" s="67"/>
-      <c r="K136" s="62"/>
-      <c r="L136" s="62"/>
-      <c r="M136" s="62"/>
-      <c r="N136" s="62"/>
-    </row>
-    <row r="137" spans="1:14" s="58" customFormat="1">
-      <c r="A137" s="43"/>
-      <c r="B137" s="43"/>
+      <c r="F136" s="52"/>
+      <c r="G136" s="52"/>
+      <c r="H136" s="52"/>
+      <c r="I136" s="52"/>
+      <c r="J136" s="52"/>
+      <c r="K136" s="52"/>
+      <c r="L136" s="52"/>
+      <c r="M136" s="52"/>
+      <c r="N136" s="52"/>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137" s="41"/>
+      <c r="B137" s="41"/>
       <c r="C137" s="41"/>
       <c r="D137" s="41"/>
       <c r="E137" s="41"/>
       <c r="F137" s="49"/>
-      <c r="G137" s="43"/>
-      <c r="H137" s="43"/>
-      <c r="I137" s="43"/>
-      <c r="J137" s="67"/>
-      <c r="K137" s="62"/>
-      <c r="L137" s="62"/>
-      <c r="M137" s="62"/>
-      <c r="N137" s="62"/>
-    </row>
-    <row r="138" spans="1:14" s="58" customFormat="1">
-      <c r="A138" s="43"/>
-      <c r="B138" s="43"/>
+      <c r="G137" s="41"/>
+      <c r="H137" s="41"/>
+      <c r="I137" s="41"/>
+      <c r="J137" s="52"/>
+      <c r="K137" s="52"/>
+      <c r="L137" s="52"/>
+      <c r="M137" s="52"/>
+      <c r="N137" s="52"/>
+    </row>
+    <row r="138" spans="1:14" ht="24">
+      <c r="A138" s="41"/>
+      <c r="B138" s="41"/>
       <c r="C138" s="41"/>
       <c r="D138" s="41"/>
       <c r="E138" s="41"/>
       <c r="F138" s="49"/>
-      <c r="G138" s="43"/>
-      <c r="H138" s="43"/>
-      <c r="I138" s="43"/>
-      <c r="J138" s="67"/>
-      <c r="K138" s="62"/>
-      <c r="L138" s="62"/>
-      <c r="M138" s="62"/>
-      <c r="N138" s="62"/>
-    </row>
-    <row r="139" spans="1:14" s="58" customFormat="1">
-      <c r="A139" s="43"/>
-      <c r="B139" s="43"/>
+      <c r="G138" s="41"/>
+      <c r="H138" s="41"/>
+      <c r="I138" s="46"/>
+      <c r="J138" s="52"/>
+      <c r="K138" s="52"/>
+      <c r="L138" s="61" t="s">
+        <v>3856</v>
+      </c>
+      <c r="M138" s="52"/>
+      <c r="N138" s="52"/>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139" s="41"/>
+      <c r="B139" s="41"/>
       <c r="C139" s="41"/>
       <c r="D139" s="41"/>
       <c r="E139" s="41"/>
       <c r="F139" s="49"/>
-      <c r="G139" s="43"/>
-      <c r="H139" s="43"/>
-      <c r="I139" s="43"/>
-      <c r="J139" s="67"/>
-      <c r="K139" s="62"/>
-      <c r="L139" s="62"/>
-      <c r="M139" s="62"/>
-      <c r="N139" s="62"/>
-    </row>
-    <row r="140" spans="1:14" s="58" customFormat="1">
-      <c r="A140" s="43"/>
-      <c r="B140" s="43"/>
+      <c r="G139" s="41"/>
+      <c r="H139" s="41"/>
+      <c r="I139" s="41"/>
+      <c r="J139" s="52"/>
+      <c r="K139" s="52"/>
+      <c r="L139" s="52"/>
+      <c r="M139" s="52"/>
+      <c r="N139" s="52"/>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140" s="41"/>
+      <c r="B140" s="41"/>
       <c r="C140" s="41"/>
       <c r="D140" s="41"/>
       <c r="E140" s="41"/>
-      <c r="F140" s="49"/>
-      <c r="G140" s="43"/>
-      <c r="H140" s="43"/>
-      <c r="I140" s="43"/>
-      <c r="J140" s="67"/>
-      <c r="K140" s="62"/>
-      <c r="L140" s="62"/>
-      <c r="M140" s="62"/>
-      <c r="N140" s="62"/>
-    </row>
-    <row r="141" spans="1:14" s="58" customFormat="1">
-      <c r="A141" s="43"/>
-      <c r="B141" s="43"/>
+      <c r="F140" s="50"/>
+      <c r="G140" s="41"/>
+      <c r="H140" s="41"/>
+      <c r="I140" s="41"/>
+      <c r="J140" s="52"/>
+      <c r="K140" s="52"/>
+      <c r="L140" s="52"/>
+      <c r="M140" s="52"/>
+      <c r="N140" s="52"/>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141" s="41"/>
+      <c r="B141" s="41"/>
       <c r="C141" s="41"/>
       <c r="D141" s="41"/>
       <c r="E141" s="41"/>
       <c r="F141" s="49"/>
-      <c r="G141" s="43"/>
-      <c r="H141" s="43"/>
-      <c r="I141" s="43"/>
-      <c r="J141" s="67"/>
-      <c r="K141" s="62"/>
-      <c r="L141" s="62"/>
-      <c r="M141" s="62"/>
-      <c r="N141" s="62"/>
-    </row>
-    <row r="142" spans="1:14" s="58" customFormat="1">
-      <c r="A142" s="43"/>
-      <c r="B142" s="43"/>
+      <c r="G141" s="41"/>
+      <c r="H141" s="41"/>
+      <c r="I141" s="41"/>
+      <c r="J141" s="52"/>
+      <c r="K141" s="52"/>
+      <c r="L141" s="52"/>
+      <c r="M141" s="52"/>
+      <c r="N141" s="52"/>
+    </row>
+    <row r="142" spans="1:14" ht="24">
+      <c r="A142" s="41"/>
+      <c r="B142" s="41"/>
       <c r="C142" s="41"/>
       <c r="D142" s="41"/>
       <c r="E142" s="41"/>
       <c r="F142" s="49"/>
-      <c r="G142" s="43"/>
-      <c r="H142" s="43"/>
-      <c r="I142" s="43"/>
-      <c r="J142" s="67"/>
-      <c r="K142" s="62"/>
-      <c r="L142" s="62"/>
-      <c r="M142" s="62"/>
-      <c r="N142" s="62"/>
-    </row>
-    <row r="143" spans="1:14" s="58" customFormat="1">
-      <c r="A143" s="43"/>
-      <c r="B143" s="43"/>
+      <c r="G142" s="41"/>
+      <c r="H142" s="41"/>
+      <c r="I142" s="46" t="s">
+        <v>3855</v>
+      </c>
+      <c r="J142" s="52"/>
+      <c r="K142" s="52"/>
+      <c r="L142" s="47"/>
+      <c r="M142" s="52"/>
+      <c r="N142" s="52"/>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143" s="41"/>
+      <c r="B143" s="41"/>
       <c r="C143" s="41"/>
       <c r="D143" s="41"/>
       <c r="E143" s="41"/>
       <c r="F143" s="49"/>
-      <c r="G143" s="43"/>
-      <c r="H143" s="43"/>
-      <c r="I143" s="43"/>
-      <c r="J143" s="67"/>
-      <c r="K143" s="62"/>
-      <c r="L143" s="62"/>
-      <c r="M143" s="62"/>
-      <c r="N143" s="62"/>
+      <c r="G143" s="41"/>
+      <c r="H143" s="41"/>
+      <c r="I143" s="41"/>
+      <c r="J143" s="52"/>
+      <c r="K143" s="52"/>
+      <c r="L143" s="52"/>
+      <c r="M143" s="52"/>
+      <c r="N143" s="52"/>
     </row>
     <row r="144" spans="1:14">
-      <c r="A144" s="52"/>
-      <c r="B144" s="52"/>
-      <c r="C144" s="52"/>
-      <c r="D144" s="41"/>
-      <c r="E144" s="41"/>
-      <c r="F144" s="52"/>
-      <c r="G144" s="52"/>
-      <c r="H144" s="52"/>
-      <c r="I144" s="52"/>
+      <c r="A144" s="41"/>
+      <c r="B144" s="41"/>
+      <c r="C144" s="41"/>
+      <c r="D144" s="41" t="s">
+        <v>3912</v>
+      </c>
+      <c r="E144" s="41" t="s">
+        <v>3938</v>
+      </c>
+      <c r="F144" s="49"/>
+      <c r="G144" s="41"/>
+      <c r="H144" s="41"/>
+      <c r="I144" s="41"/>
       <c r="J144" s="52"/>
       <c r="K144" s="52"/>
       <c r="L144" s="52"/>
@@ -28556,8 +28461,12 @@
       <c r="A145" s="41"/>
       <c r="B145" s="41"/>
       <c r="C145" s="41"/>
-      <c r="D145" s="41"/>
-      <c r="E145" s="41"/>
+      <c r="D145" s="41" t="s">
+        <v>3914</v>
+      </c>
+      <c r="E145" s="41" t="s">
+        <v>3967</v>
+      </c>
       <c r="F145" s="49"/>
       <c r="G145" s="41"/>
       <c r="H145" s="41"/>
@@ -28568,21 +28477,23 @@
       <c r="M145" s="52"/>
       <c r="N145" s="52"/>
     </row>
-    <row r="146" spans="1:14" ht="24">
+    <row r="146" spans="1:14">
       <c r="A146" s="41"/>
       <c r="B146" s="41"/>
       <c r="C146" s="41"/>
-      <c r="D146" s="41"/>
-      <c r="E146" s="41"/>
+      <c r="D146" s="41" t="s">
+        <v>3906</v>
+      </c>
+      <c r="E146" s="41" t="s">
+        <v>3942</v>
+      </c>
       <c r="F146" s="49"/>
       <c r="G146" s="41"/>
       <c r="H146" s="41"/>
-      <c r="I146" s="46"/>
+      <c r="I146" s="41"/>
       <c r="J146" s="52"/>
       <c r="K146" s="52"/>
-      <c r="L146" s="61" t="s">
-        <v>3856</v>
-      </c>
+      <c r="L146" s="52"/>
       <c r="M146" s="52"/>
       <c r="N146" s="52"/>
     </row>
@@ -28590,8 +28501,12 @@
       <c r="A147" s="41"/>
       <c r="B147" s="41"/>
       <c r="C147" s="41"/>
-      <c r="D147" s="41"/>
-      <c r="E147" s="41"/>
+      <c r="D147" s="41" t="s">
+        <v>3915</v>
+      </c>
+      <c r="E147" s="41" t="s">
+        <v>3945</v>
+      </c>
       <c r="F147" s="49"/>
       <c r="G147" s="41"/>
       <c r="H147" s="41"/>
@@ -28606,9 +28521,13 @@
       <c r="A148" s="41"/>
       <c r="B148" s="41"/>
       <c r="C148" s="41"/>
-      <c r="D148" s="41"/>
-      <c r="E148" s="41"/>
-      <c r="F148" s="50"/>
+      <c r="D148" s="41" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E148" s="41" t="s">
+        <v>3980</v>
+      </c>
+      <c r="F148" s="49"/>
       <c r="G148" s="41"/>
       <c r="H148" s="41"/>
       <c r="I148" s="41"/>
@@ -28622,8 +28541,12 @@
       <c r="A149" s="41"/>
       <c r="B149" s="41"/>
       <c r="C149" s="41"/>
-      <c r="D149" s="41"/>
-      <c r="E149" s="41"/>
+      <c r="D149" s="41" t="s">
+        <v>3917</v>
+      </c>
+      <c r="E149" s="41" t="s">
+        <v>3968</v>
+      </c>
       <c r="F149" s="49"/>
       <c r="G149" s="41"/>
       <c r="H149" s="41"/>
@@ -28634,7 +28557,7 @@
       <c r="M149" s="52"/>
       <c r="N149" s="52"/>
     </row>
-    <row r="150" spans="1:14" ht="24">
+    <row r="150" spans="1:14">
       <c r="A150" s="41"/>
       <c r="B150" s="41"/>
       <c r="C150" s="41"/>
@@ -28643,12 +28566,10 @@
       <c r="F150" s="49"/>
       <c r="G150" s="41"/>
       <c r="H150" s="41"/>
-      <c r="I150" s="46" t="s">
-        <v>3855</v>
-      </c>
+      <c r="I150" s="41"/>
       <c r="J150" s="52"/>
       <c r="K150" s="52"/>
-      <c r="L150" s="47"/>
+      <c r="L150" s="52"/>
       <c r="M150" s="52"/>
       <c r="N150" s="52"/>
     </row>
@@ -28656,8 +28577,12 @@
       <c r="A151" s="41"/>
       <c r="B151" s="41"/>
       <c r="C151" s="41"/>
-      <c r="D151" s="41"/>
-      <c r="E151" s="41"/>
+      <c r="D151" s="41" t="s">
+        <v>3918</v>
+      </c>
+      <c r="E151" s="41" t="s">
+        <v>3946</v>
+      </c>
       <c r="F151" s="49"/>
       <c r="G151" s="41"/>
       <c r="H151" s="41"/>
@@ -28673,10 +28598,10 @@
       <c r="B152" s="41"/>
       <c r="C152" s="41"/>
       <c r="D152" s="41" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="E152" s="41" t="s">
-        <v>3955</v>
+        <v>3947</v>
       </c>
       <c r="F152" s="49"/>
       <c r="G152" s="41"/>
@@ -28692,12 +28617,8 @@
       <c r="A153" s="41"/>
       <c r="B153" s="41"/>
       <c r="C153" s="41"/>
-      <c r="D153" s="41" t="s">
-        <v>3922</v>
-      </c>
-      <c r="E153" s="41" t="s">
-        <v>3998</v>
-      </c>
+      <c r="D153" s="41"/>
+      <c r="E153" s="41"/>
       <c r="F153" s="49"/>
       <c r="G153" s="41"/>
       <c r="H153" s="41"/>
@@ -28712,12 +28633,8 @@
       <c r="A154" s="41"/>
       <c r="B154" s="41"/>
       <c r="C154" s="41"/>
-      <c r="D154" s="41" t="s">
-        <v>3914</v>
-      </c>
-      <c r="E154" s="41" t="s">
-        <v>3962</v>
-      </c>
+      <c r="D154" s="41"/>
+      <c r="E154" s="41"/>
       <c r="F154" s="49"/>
       <c r="G154" s="41"/>
       <c r="H154" s="41"/>
@@ -28732,12 +28649,8 @@
       <c r="A155" s="41"/>
       <c r="B155" s="41"/>
       <c r="C155" s="41"/>
-      <c r="D155" s="41" t="s">
-        <v>3923</v>
-      </c>
-      <c r="E155" s="41" t="s">
-        <v>3969</v>
-      </c>
+      <c r="D155" s="41"/>
+      <c r="E155" s="41"/>
       <c r="F155" s="49"/>
       <c r="G155" s="41"/>
       <c r="H155" s="41"/>
@@ -28752,12 +28665,8 @@
       <c r="A156" s="41"/>
       <c r="B156" s="41"/>
       <c r="C156" s="41"/>
-      <c r="D156" s="41" t="s">
-        <v>3924</v>
-      </c>
-      <c r="E156" s="41" t="s">
-        <v>4012</v>
-      </c>
+      <c r="D156" s="41"/>
+      <c r="E156" s="41"/>
       <c r="F156" s="49"/>
       <c r="G156" s="41"/>
       <c r="H156" s="41"/>
@@ -28772,12 +28681,8 @@
       <c r="A157" s="41"/>
       <c r="B157" s="41"/>
       <c r="C157" s="41"/>
-      <c r="D157" s="41" t="s">
-        <v>3925</v>
-      </c>
-      <c r="E157" s="41" t="s">
-        <v>4013</v>
-      </c>
+      <c r="D157" s="41"/>
+      <c r="E157" s="41"/>
       <c r="F157" s="49"/>
       <c r="G157" s="41"/>
       <c r="H157" s="41"/>
@@ -28792,12 +28697,8 @@
       <c r="A158" s="41"/>
       <c r="B158" s="41"/>
       <c r="C158" s="41"/>
-      <c r="D158" s="41" t="s">
-        <v>3926</v>
-      </c>
-      <c r="E158" s="41" t="s">
-        <v>3999</v>
-      </c>
+      <c r="D158" s="41"/>
+      <c r="E158" s="41"/>
       <c r="F158" s="49"/>
       <c r="G158" s="41"/>
       <c r="H158" s="41"/>
@@ -28828,12 +28729,8 @@
       <c r="A160" s="41"/>
       <c r="B160" s="41"/>
       <c r="C160" s="41"/>
-      <c r="D160" s="41" t="s">
-        <v>3927</v>
-      </c>
-      <c r="E160" s="41" t="s">
-        <v>3970</v>
-      </c>
+      <c r="D160" s="41"/>
+      <c r="E160" s="41"/>
       <c r="F160" s="49"/>
       <c r="G160" s="41"/>
       <c r="H160" s="41"/>
@@ -28848,12 +28745,8 @@
       <c r="A161" s="41"/>
       <c r="B161" s="41"/>
       <c r="C161" s="41"/>
-      <c r="D161" s="41" t="s">
-        <v>3928</v>
-      </c>
-      <c r="E161" s="41" t="s">
-        <v>3971</v>
-      </c>
+      <c r="D161" s="41"/>
+      <c r="E161" s="41"/>
       <c r="F161" s="49"/>
       <c r="G161" s="41"/>
       <c r="H161" s="41"/>
@@ -28897,15 +28790,15 @@
       <c r="N163" s="52"/>
     </row>
     <row r="164" spans="1:14">
-      <c r="A164" s="41"/>
-      <c r="B164" s="41"/>
-      <c r="C164" s="41"/>
+      <c r="A164" s="52"/>
+      <c r="B164" s="52"/>
+      <c r="C164" s="52"/>
       <c r="D164" s="41"/>
       <c r="E164" s="41"/>
-      <c r="F164" s="49"/>
-      <c r="G164" s="41"/>
-      <c r="H164" s="41"/>
-      <c r="I164" s="41"/>
+      <c r="F164" s="52"/>
+      <c r="G164" s="52"/>
+      <c r="H164" s="52"/>
+      <c r="I164" s="52"/>
       <c r="J164" s="52"/>
       <c r="K164" s="52"/>
       <c r="L164" s="52"/>
@@ -28914,14 +28807,14 @@
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="41"/>
-      <c r="B165" s="41"/>
+      <c r="B165" s="52"/>
       <c r="C165" s="41"/>
       <c r="D165" s="41"/>
       <c r="E165" s="41"/>
-      <c r="F165" s="49"/>
-      <c r="G165" s="41"/>
-      <c r="H165" s="41"/>
-      <c r="I165" s="41"/>
+      <c r="F165" s="53"/>
+      <c r="G165" s="52"/>
+      <c r="H165" s="52"/>
+      <c r="I165" s="52"/>
       <c r="J165" s="52"/>
       <c r="K165" s="52"/>
       <c r="L165" s="52"/>
@@ -28930,14 +28823,14 @@
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="41"/>
-      <c r="B166" s="41"/>
+      <c r="B166" s="52"/>
       <c r="C166" s="41"/>
       <c r="D166" s="41"/>
       <c r="E166" s="41"/>
-      <c r="F166" s="49"/>
-      <c r="G166" s="41"/>
-      <c r="H166" s="41"/>
-      <c r="I166" s="41"/>
+      <c r="F166" s="53"/>
+      <c r="G166" s="52"/>
+      <c r="H166" s="52"/>
+      <c r="I166" s="52"/>
       <c r="J166" s="52"/>
       <c r="K166" s="52"/>
       <c r="L166" s="52"/>
@@ -28946,14 +28839,14 @@
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="41"/>
-      <c r="B167" s="41"/>
+      <c r="B167" s="52"/>
       <c r="C167" s="41"/>
       <c r="D167" s="41"/>
       <c r="E167" s="41"/>
-      <c r="F167" s="49"/>
-      <c r="G167" s="41"/>
-      <c r="H167" s="41"/>
-      <c r="I167" s="41"/>
+      <c r="F167" s="53"/>
+      <c r="G167" s="52"/>
+      <c r="H167" s="52"/>
+      <c r="I167" s="52"/>
       <c r="J167" s="52"/>
       <c r="K167" s="52"/>
       <c r="L167" s="52"/>
@@ -28962,14 +28855,14 @@
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="41"/>
-      <c r="B168" s="41"/>
+      <c r="B168" s="52"/>
       <c r="C168" s="41"/>
       <c r="D168" s="41"/>
       <c r="E168" s="41"/>
-      <c r="F168" s="49"/>
-      <c r="G168" s="41"/>
-      <c r="H168" s="41"/>
-      <c r="I168" s="41"/>
+      <c r="F168" s="53"/>
+      <c r="G168" s="52"/>
+      <c r="H168" s="52"/>
+      <c r="I168" s="52"/>
       <c r="J168" s="52"/>
       <c r="K168" s="52"/>
       <c r="L168" s="52"/>
@@ -28978,14 +28871,14 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="41"/>
-      <c r="B169" s="41"/>
+      <c r="B169" s="52"/>
       <c r="C169" s="41"/>
       <c r="D169" s="41"/>
       <c r="E169" s="41"/>
-      <c r="F169" s="49"/>
-      <c r="G169" s="41"/>
-      <c r="H169" s="41"/>
-      <c r="I169" s="41"/>
+      <c r="F169" s="53"/>
+      <c r="G169" s="52"/>
+      <c r="H169" s="52"/>
+      <c r="I169" s="52"/>
       <c r="J169" s="52"/>
       <c r="K169" s="52"/>
       <c r="L169" s="52"/>
@@ -28994,14 +28887,14 @@
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="41"/>
-      <c r="B170" s="41"/>
+      <c r="B170" s="52"/>
       <c r="C170" s="41"/>
       <c r="D170" s="41"/>
       <c r="E170" s="41"/>
-      <c r="F170" s="49"/>
-      <c r="G170" s="41"/>
-      <c r="H170" s="41"/>
-      <c r="I170" s="41"/>
+      <c r="F170" s="53"/>
+      <c r="G170" s="52"/>
+      <c r="H170" s="52"/>
+      <c r="I170" s="52"/>
       <c r="J170" s="52"/>
       <c r="K170" s="52"/>
       <c r="L170" s="52"/>
@@ -29010,43 +28903,47 @@
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="41"/>
-      <c r="B171" s="41"/>
+      <c r="B171" s="52"/>
       <c r="C171" s="41"/>
       <c r="D171" s="41"/>
       <c r="E171" s="41"/>
-      <c r="F171" s="49"/>
-      <c r="G171" s="41"/>
-      <c r="H171" s="41"/>
-      <c r="I171" s="41"/>
+      <c r="F171" s="53"/>
+      <c r="G171" s="52"/>
+      <c r="H171" s="52"/>
+      <c r="I171" s="52"/>
       <c r="J171" s="52"/>
       <c r="K171" s="52"/>
       <c r="L171" s="52"/>
       <c r="M171" s="52"/>
       <c r="N171" s="52"/>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" ht="24">
       <c r="A172" s="41"/>
-      <c r="B172" s="41"/>
+      <c r="B172" s="52"/>
       <c r="C172" s="41"/>
       <c r="D172" s="41"/>
       <c r="E172" s="41"/>
-      <c r="F172" s="49"/>
-      <c r="G172" s="41"/>
-      <c r="H172" s="41"/>
-      <c r="I172" s="41"/>
+      <c r="F172" s="54"/>
+      <c r="G172" s="52"/>
+      <c r="H172" s="52"/>
+      <c r="I172" s="47" t="s">
+        <v>3857</v>
+      </c>
       <c r="J172" s="52"/>
       <c r="K172" s="52"/>
-      <c r="L172" s="52"/>
+      <c r="L172" s="61" t="s">
+        <v>3858</v>
+      </c>
       <c r="M172" s="52"/>
       <c r="N172" s="52"/>
     </row>
     <row r="173" spans="1:14">
-      <c r="A173" s="52"/>
+      <c r="A173" s="41"/>
       <c r="B173" s="52"/>
-      <c r="C173" s="52"/>
+      <c r="C173" s="41"/>
       <c r="D173" s="41"/>
       <c r="E173" s="41"/>
-      <c r="F173" s="52"/>
+      <c r="F173" s="53"/>
       <c r="G173" s="52"/>
       <c r="H173" s="52"/>
       <c r="I173" s="52"/>
@@ -29056,13 +28953,17 @@
       <c r="M173" s="52"/>
       <c r="N173" s="52"/>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" ht="65.5" customHeight="1">
       <c r="A174" s="41"/>
       <c r="B174" s="52"/>
       <c r="C174" s="41"/>
-      <c r="D174" s="41"/>
-      <c r="E174" s="41"/>
-      <c r="F174" s="53"/>
+      <c r="D174" s="41" t="s">
+        <v>3920</v>
+      </c>
+      <c r="E174" s="41" t="s">
+        <v>3988</v>
+      </c>
+      <c r="F174" s="55"/>
       <c r="G174" s="52"/>
       <c r="H174" s="52"/>
       <c r="I174" s="52"/>
@@ -29072,12 +28973,16 @@
       <c r="M174" s="52"/>
       <c r="N174" s="52"/>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" ht="65" customHeight="1">
       <c r="A175" s="41"/>
       <c r="B175" s="52"/>
       <c r="C175" s="41"/>
-      <c r="D175" s="41"/>
-      <c r="E175" s="41"/>
+      <c r="D175" s="41" t="s">
+        <v>3921</v>
+      </c>
+      <c r="E175" s="41" t="s">
+        <v>3989</v>
+      </c>
       <c r="F175" s="53"/>
       <c r="G175" s="52"/>
       <c r="H175" s="52"/>
@@ -29088,13 +28993,17 @@
       <c r="M175" s="52"/>
       <c r="N175" s="52"/>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" ht="56.5" customHeight="1">
       <c r="A176" s="41"/>
       <c r="B176" s="52"/>
       <c r="C176" s="41"/>
-      <c r="D176" s="41"/>
-      <c r="E176" s="41"/>
-      <c r="F176" s="53"/>
+      <c r="D176" s="41" t="s">
+        <v>3922</v>
+      </c>
+      <c r="E176" s="41" t="s">
+        <v>3990</v>
+      </c>
+      <c r="F176" s="54"/>
       <c r="G176" s="52"/>
       <c r="H176" s="52"/>
       <c r="I176" s="52"/>
@@ -29104,29 +29013,41 @@
       <c r="M176" s="52"/>
       <c r="N176" s="52"/>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" ht="24">
       <c r="A177" s="41"/>
       <c r="B177" s="52"/>
       <c r="C177" s="41"/>
-      <c r="D177" s="41"/>
-      <c r="E177" s="41"/>
-      <c r="F177" s="53"/>
+      <c r="D177" s="41" t="s">
+        <v>3923</v>
+      </c>
+      <c r="E177" s="41" t="s">
+        <v>3948</v>
+      </c>
+      <c r="F177" s="54"/>
       <c r="G177" s="52"/>
       <c r="H177" s="52"/>
-      <c r="I177" s="52"/>
+      <c r="I177" s="47" t="s">
+        <v>3859</v>
+      </c>
       <c r="J177" s="52"/>
       <c r="K177" s="52"/>
-      <c r="L177" s="52"/>
+      <c r="L177" s="61" t="s">
+        <v>3860</v>
+      </c>
       <c r="M177" s="52"/>
       <c r="N177" s="52"/>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" ht="67" customHeight="1">
       <c r="A178" s="41"/>
-      <c r="B178" s="52"/>
+      <c r="B178" s="41"/>
       <c r="C178" s="41"/>
-      <c r="D178" s="41"/>
-      <c r="E178" s="41"/>
-      <c r="F178" s="53"/>
+      <c r="D178" s="41" t="s">
+        <v>3924</v>
+      </c>
+      <c r="E178" s="41" t="s">
+        <v>3991</v>
+      </c>
+      <c r="F178" s="63"/>
       <c r="G178" s="52"/>
       <c r="H178" s="52"/>
       <c r="I178" s="52"/>
@@ -29136,30 +29057,34 @@
       <c r="M178" s="52"/>
       <c r="N178" s="52"/>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" ht="24">
       <c r="A179" s="41"/>
-      <c r="B179" s="52"/>
+      <c r="B179" s="41"/>
       <c r="C179" s="41"/>
       <c r="D179" s="41"/>
       <c r="E179" s="41"/>
-      <c r="F179" s="53"/>
+      <c r="F179" s="63"/>
       <c r="G179" s="52"/>
       <c r="H179" s="52"/>
-      <c r="I179" s="52"/>
+      <c r="I179" s="47" t="s">
+        <v>3859</v>
+      </c>
       <c r="J179" s="52"/>
       <c r="K179" s="52"/>
-      <c r="L179" s="52"/>
+      <c r="L179" s="61" t="s">
+        <v>3860</v>
+      </c>
       <c r="M179" s="52"/>
       <c r="N179" s="52"/>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="41"/>
-      <c r="B180" s="52"/>
-      <c r="C180" s="41"/>
+      <c r="B180" s="41"/>
+      <c r="C180" s="44"/>
       <c r="D180" s="41"/>
       <c r="E180" s="41"/>
       <c r="F180" s="53"/>
-      <c r="G180" s="52"/>
+      <c r="G180" s="64"/>
       <c r="H180" s="52"/>
       <c r="I180" s="52"/>
       <c r="J180" s="52"/>
@@ -29168,33 +29093,29 @@
       <c r="M180" s="52"/>
       <c r="N180" s="52"/>
     </row>
-    <row r="181" spans="1:14" ht="24">
+    <row r="181" spans="1:14">
       <c r="A181" s="41"/>
-      <c r="B181" s="52"/>
-      <c r="C181" s="41"/>
+      <c r="B181" s="41"/>
+      <c r="C181" s="44"/>
       <c r="D181" s="41"/>
       <c r="E181" s="41"/>
-      <c r="F181" s="54"/>
+      <c r="F181" s="49"/>
       <c r="G181" s="52"/>
       <c r="H181" s="52"/>
-      <c r="I181" s="47" t="s">
-        <v>3857</v>
-      </c>
+      <c r="I181" s="52"/>
       <c r="J181" s="52"/>
       <c r="K181" s="52"/>
-      <c r="L181" s="61" t="s">
-        <v>3858</v>
-      </c>
+      <c r="L181" s="52"/>
       <c r="M181" s="52"/>
       <c r="N181" s="52"/>
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="41"/>
-      <c r="B182" s="52"/>
-      <c r="C182" s="41"/>
+      <c r="B182" s="41"/>
+      <c r="C182" s="44"/>
       <c r="D182" s="41"/>
       <c r="E182" s="41"/>
-      <c r="F182" s="53"/>
+      <c r="F182" s="49"/>
       <c r="G182" s="52"/>
       <c r="H182" s="52"/>
       <c r="I182" s="52"/>
@@ -29204,184 +29125,180 @@
       <c r="M182" s="52"/>
       <c r="N182" s="52"/>
     </row>
-    <row r="183" spans="1:14" ht="65.5" customHeight="1">
+    <row r="183" spans="1:14" s="45" customFormat="1">
       <c r="A183" s="41"/>
-      <c r="B183" s="52"/>
+      <c r="B183" s="41"/>
       <c r="C183" s="41"/>
-      <c r="D183" s="41" t="s">
-        <v>3929</v>
-      </c>
-      <c r="E183" s="41" t="s">
-        <v>3947</v>
-      </c>
-      <c r="F183" s="55"/>
-      <c r="G183" s="52"/>
-      <c r="H183" s="52"/>
-      <c r="I183" s="52"/>
-      <c r="J183" s="52"/>
-      <c r="K183" s="52"/>
-      <c r="L183" s="52"/>
-      <c r="M183" s="52"/>
-      <c r="N183" s="52"/>
-    </row>
-    <row r="184" spans="1:14" ht="65" customHeight="1">
+      <c r="D183" s="41"/>
+      <c r="E183" s="41"/>
+      <c r="F183" s="41"/>
+      <c r="G183" s="41"/>
+      <c r="H183" s="41"/>
+      <c r="I183" s="41"/>
+      <c r="J183" s="41"/>
+      <c r="K183" s="41"/>
+      <c r="L183" s="41"/>
+      <c r="M183" s="41"/>
+      <c r="N183" s="41"/>
+    </row>
+    <row r="184" spans="1:14" s="45" customFormat="1" ht="24">
       <c r="A184" s="41"/>
-      <c r="B184" s="52"/>
+      <c r="B184" s="41"/>
       <c r="C184" s="41"/>
-      <c r="D184" s="41" t="s">
-        <v>3930</v>
-      </c>
-      <c r="E184" s="41" t="s">
-        <v>4016</v>
-      </c>
-      <c r="F184" s="53"/>
-      <c r="G184" s="52"/>
-      <c r="H184" s="52"/>
-      <c r="I184" s="52"/>
-      <c r="J184" s="52"/>
-      <c r="K184" s="52"/>
-      <c r="L184" s="52"/>
-      <c r="M184" s="52"/>
-      <c r="N184" s="52"/>
-    </row>
-    <row r="185" spans="1:14" ht="56.5" customHeight="1">
+      <c r="D184" s="41"/>
+      <c r="E184" s="41"/>
+      <c r="F184" s="41"/>
+      <c r="G184" s="41"/>
+      <c r="H184" s="41"/>
+      <c r="I184" s="46" t="s">
+        <v>3862</v>
+      </c>
+      <c r="J184" s="41"/>
+      <c r="K184" s="41"/>
+      <c r="L184" s="48" t="s">
+        <v>3861</v>
+      </c>
+      <c r="M184" s="41"/>
+      <c r="N184" s="41"/>
+    </row>
+    <row r="185" spans="1:14" s="45" customFormat="1">
       <c r="A185" s="41"/>
-      <c r="B185" s="52"/>
+      <c r="B185" s="41"/>
       <c r="C185" s="41"/>
-      <c r="D185" s="41" t="s">
-        <v>3931</v>
-      </c>
-      <c r="E185" s="41" t="s">
-        <v>3948</v>
-      </c>
-      <c r="F185" s="54"/>
-      <c r="G185" s="52"/>
-      <c r="H185" s="52"/>
-      <c r="I185" s="52"/>
-      <c r="J185" s="52"/>
-      <c r="K185" s="52"/>
-      <c r="L185" s="52"/>
-      <c r="M185" s="52"/>
-      <c r="N185" s="52"/>
-    </row>
-    <row r="186" spans="1:14" ht="24">
+      <c r="D185" s="41"/>
+      <c r="E185" s="41"/>
+      <c r="F185" s="41"/>
+      <c r="G185" s="41"/>
+      <c r="H185" s="41"/>
+      <c r="I185" s="41"/>
+      <c r="J185" s="41"/>
+      <c r="K185" s="41"/>
+      <c r="L185" s="41"/>
+      <c r="M185" s="41"/>
+      <c r="N185" s="41"/>
+    </row>
+    <row r="186" spans="1:14" s="45" customFormat="1">
       <c r="A186" s="41"/>
-      <c r="B186" s="52"/>
+      <c r="B186" s="41"/>
       <c r="C186" s="41"/>
-      <c r="D186" s="41" t="s">
-        <v>3932</v>
-      </c>
-      <c r="E186" s="41" t="s">
-        <v>3972</v>
-      </c>
-      <c r="F186" s="54"/>
-      <c r="G186" s="52"/>
-      <c r="H186" s="52"/>
-      <c r="I186" s="47" t="s">
-        <v>3859</v>
-      </c>
-      <c r="J186" s="52"/>
-      <c r="K186" s="52"/>
-      <c r="L186" s="61" t="s">
-        <v>3860</v>
-      </c>
-      <c r="M186" s="52"/>
-      <c r="N186" s="52"/>
-    </row>
-    <row r="187" spans="1:14" ht="44" customHeight="1">
+      <c r="D186" s="41"/>
+      <c r="E186" s="41"/>
+      <c r="F186" s="41"/>
+      <c r="G186" s="41"/>
+      <c r="H186" s="41"/>
+      <c r="I186" s="41"/>
+      <c r="J186" s="41"/>
+      <c r="K186" s="41"/>
+      <c r="L186" s="41"/>
+      <c r="M186" s="41"/>
+      <c r="N186" s="41"/>
+    </row>
+    <row r="187" spans="1:14" s="45" customFormat="1">
       <c r="A187" s="41"/>
       <c r="B187" s="41"/>
       <c r="C187" s="41"/>
       <c r="D187" s="41" t="s">
-        <v>3933</v>
+        <v>3925</v>
       </c>
       <c r="E187" s="41" t="s">
         <v>3949</v>
       </c>
-      <c r="F187" s="63"/>
-      <c r="G187" s="52"/>
-      <c r="H187" s="52"/>
-      <c r="I187" s="52"/>
-      <c r="J187" s="52"/>
-      <c r="K187" s="52"/>
-      <c r="L187" s="52"/>
-      <c r="M187" s="52"/>
-      <c r="N187" s="52"/>
-    </row>
-    <row r="188" spans="1:14" ht="24">
+      <c r="F187" s="41"/>
+      <c r="G187" s="41"/>
+      <c r="H187" s="41"/>
+      <c r="I187" s="41"/>
+      <c r="J187" s="41"/>
+      <c r="K187" s="41"/>
+      <c r="L187" s="41"/>
+      <c r="M187" s="41"/>
+      <c r="N187" s="41"/>
+    </row>
+    <row r="188" spans="1:14" s="45" customFormat="1">
       <c r="A188" s="41"/>
       <c r="B188" s="41"/>
       <c r="C188" s="41"/>
-      <c r="D188" s="41"/>
-      <c r="E188" s="41"/>
-      <c r="F188" s="63"/>
-      <c r="G188" s="52"/>
-      <c r="H188" s="52"/>
-      <c r="I188" s="47" t="s">
-        <v>3859</v>
-      </c>
-      <c r="J188" s="52"/>
-      <c r="K188" s="52"/>
-      <c r="L188" s="61" t="s">
-        <v>3860</v>
-      </c>
-      <c r="M188" s="52"/>
-      <c r="N188" s="52"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="D188" s="41" t="s">
+        <v>3926</v>
+      </c>
+      <c r="E188" s="41" t="s">
+        <v>3982</v>
+      </c>
+      <c r="F188" s="41"/>
+      <c r="G188" s="41"/>
+      <c r="H188" s="41"/>
+      <c r="I188" s="41"/>
+      <c r="J188" s="41"/>
+      <c r="K188" s="41"/>
+      <c r="L188" s="41"/>
+      <c r="M188" s="41"/>
+      <c r="N188" s="41"/>
+    </row>
+    <row r="189" spans="1:14" s="45" customFormat="1">
       <c r="A189" s="41"/>
       <c r="B189" s="41"/>
-      <c r="C189" s="44"/>
-      <c r="D189" s="41"/>
-      <c r="E189" s="41"/>
-      <c r="F189" s="53"/>
-      <c r="G189" s="64"/>
-      <c r="H189" s="52"/>
-      <c r="I189" s="52"/>
-      <c r="J189" s="52"/>
-      <c r="K189" s="52"/>
-      <c r="L189" s="52"/>
-      <c r="M189" s="52"/>
-      <c r="N189" s="52"/>
-    </row>
-    <row r="190" spans="1:14">
+      <c r="C189" s="41"/>
+      <c r="D189" s="41" t="s">
+        <v>3927</v>
+      </c>
+      <c r="E189" s="41" t="s">
+        <v>3950</v>
+      </c>
+      <c r="F189" s="41"/>
+      <c r="G189" s="41"/>
+      <c r="H189" s="41"/>
+      <c r="I189" s="41"/>
+      <c r="J189" s="41"/>
+      <c r="K189" s="41"/>
+      <c r="L189" s="41"/>
+      <c r="M189" s="41"/>
+      <c r="N189" s="41"/>
+    </row>
+    <row r="190" spans="1:14" s="45" customFormat="1">
       <c r="A190" s="41"/>
       <c r="B190" s="41"/>
-      <c r="C190" s="44"/>
-      <c r="D190" s="41"/>
-      <c r="E190" s="41"/>
-      <c r="F190" s="49"/>
-      <c r="G190" s="52"/>
-      <c r="H190" s="52"/>
-      <c r="I190" s="52"/>
-      <c r="J190" s="52"/>
-      <c r="K190" s="52"/>
-      <c r="L190" s="52"/>
-      <c r="M190" s="52"/>
-      <c r="N190" s="52"/>
-    </row>
-    <row r="191" spans="1:14">
+      <c r="C190" s="41"/>
+      <c r="D190" s="41" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E190" s="41" t="s">
+        <v>3983</v>
+      </c>
+      <c r="F190" s="41"/>
+      <c r="G190" s="41"/>
+      <c r="H190" s="41"/>
+      <c r="I190" s="41"/>
+      <c r="J190" s="41"/>
+      <c r="K190" s="41"/>
+      <c r="L190" s="41"/>
+      <c r="M190" s="41"/>
+      <c r="N190" s="41"/>
+    </row>
+    <row r="191" spans="1:14" s="45" customFormat="1">
       <c r="A191" s="41"/>
       <c r="B191" s="41"/>
-      <c r="C191" s="44"/>
+      <c r="C191" s="41"/>
       <c r="D191" s="41"/>
       <c r="E191" s="41"/>
-      <c r="F191" s="49"/>
-      <c r="G191" s="52"/>
-      <c r="H191" s="52"/>
-      <c r="I191" s="52"/>
-      <c r="J191" s="52"/>
-      <c r="K191" s="52"/>
-      <c r="L191" s="52"/>
-      <c r="M191" s="52"/>
-      <c r="N191" s="52"/>
-    </row>
-    <row r="192" spans="1:14" s="45" customFormat="1">
+      <c r="F191" s="41"/>
+      <c r="G191" s="41"/>
+      <c r="H191" s="41"/>
+      <c r="I191" s="41"/>
+      <c r="J191" s="41"/>
+      <c r="K191" s="41"/>
+      <c r="L191" s="41"/>
+      <c r="M191" s="41"/>
+      <c r="N191" s="41"/>
+    </row>
+    <row r="192" spans="1:14" s="45" customFormat="1" ht="71" customHeight="1">
       <c r="A192" s="41"/>
       <c r="B192" s="41"/>
       <c r="C192" s="41"/>
-      <c r="D192" s="41"/>
-      <c r="E192" s="41"/>
+      <c r="D192" s="41" t="s">
+        <v>3992</v>
+      </c>
+      <c r="E192" s="65" t="s">
+        <v>3993</v>
+      </c>
       <c r="F192" s="41"/>
       <c r="G192" s="41"/>
       <c r="H192" s="41"/>
@@ -29392,23 +29309,23 @@
       <c r="M192" s="41"/>
       <c r="N192" s="41"/>
     </row>
-    <row r="193" spans="1:14" s="45" customFormat="1" ht="24">
+    <row r="193" spans="1:14" s="45" customFormat="1">
       <c r="A193" s="41"/>
       <c r="B193" s="41"/>
       <c r="C193" s="41"/>
-      <c r="D193" s="41"/>
-      <c r="E193" s="41"/>
+      <c r="D193" s="41" t="s">
+        <v>3929</v>
+      </c>
+      <c r="E193" s="41" t="s">
+        <v>3987</v>
+      </c>
       <c r="F193" s="41"/>
       <c r="G193" s="41"/>
       <c r="H193" s="41"/>
-      <c r="I193" s="46" t="s">
-        <v>3862</v>
-      </c>
+      <c r="I193" s="41"/>
       <c r="J193" s="41"/>
       <c r="K193" s="41"/>
-      <c r="L193" s="48" t="s">
-        <v>3861</v>
-      </c>
+      <c r="L193" s="41"/>
       <c r="M193" s="41"/>
       <c r="N193" s="41"/>
     </row>
@@ -29416,8 +29333,12 @@
       <c r="A194" s="41"/>
       <c r="B194" s="41"/>
       <c r="C194" s="41"/>
-      <c r="D194" s="41"/>
-      <c r="E194" s="41"/>
+      <c r="D194" s="41" t="s">
+        <v>3930</v>
+      </c>
+      <c r="E194" s="41" t="s">
+        <v>3997</v>
+      </c>
       <c r="F194" s="41"/>
       <c r="G194" s="41"/>
       <c r="H194" s="41"/>
@@ -29432,8 +29353,12 @@
       <c r="A195" s="41"/>
       <c r="B195" s="41"/>
       <c r="C195" s="41"/>
-      <c r="D195" s="41"/>
-      <c r="E195" s="41"/>
+      <c r="D195" s="41" t="s">
+        <v>3887</v>
+      </c>
+      <c r="E195" s="41" t="s">
+        <v>3948</v>
+      </c>
       <c r="F195" s="41"/>
       <c r="G195" s="41"/>
       <c r="H195" s="41"/>
@@ -29448,12 +29373,8 @@
       <c r="A196" s="41"/>
       <c r="B196" s="41"/>
       <c r="C196" s="41"/>
-      <c r="D196" s="41" t="s">
-        <v>3934</v>
-      </c>
-      <c r="E196" s="41" t="s">
-        <v>3973</v>
-      </c>
+      <c r="D196" s="41"/>
+      <c r="E196" s="41"/>
       <c r="F196" s="41"/>
       <c r="G196" s="41"/>
       <c r="H196" s="41"/>
@@ -29468,12 +29389,8 @@
       <c r="A197" s="41"/>
       <c r="B197" s="41"/>
       <c r="C197" s="41"/>
-      <c r="D197" s="41" t="s">
-        <v>3935</v>
-      </c>
-      <c r="E197" s="41" t="s">
-        <v>4017</v>
-      </c>
+      <c r="D197" s="41"/>
+      <c r="E197" s="41"/>
       <c r="F197" s="41"/>
       <c r="G197" s="41"/>
       <c r="H197" s="41"/>
@@ -29484,20 +29401,18 @@
       <c r="M197" s="41"/>
       <c r="N197" s="41"/>
     </row>
-    <row r="198" spans="1:14" s="45" customFormat="1">
+    <row r="198" spans="1:14" s="45" customFormat="1" ht="24">
       <c r="A198" s="41"/>
       <c r="B198" s="41"/>
       <c r="C198" s="41"/>
-      <c r="D198" s="41" t="s">
-        <v>3936</v>
-      </c>
-      <c r="E198" s="41" t="s">
-        <v>3974</v>
-      </c>
+      <c r="D198" s="41"/>
+      <c r="E198" s="41"/>
       <c r="F198" s="41"/>
       <c r="G198" s="41"/>
       <c r="H198" s="41"/>
-      <c r="I198" s="41"/>
+      <c r="I198" s="46" t="s">
+        <v>3863</v>
+      </c>
       <c r="J198" s="41"/>
       <c r="K198" s="41"/>
       <c r="L198" s="41"/>
@@ -29508,12 +29423,8 @@
       <c r="A199" s="41"/>
       <c r="B199" s="41"/>
       <c r="C199" s="41"/>
-      <c r="D199" s="41" t="s">
-        <v>3937</v>
-      </c>
-      <c r="E199" s="41" t="s">
-        <v>4018</v>
-      </c>
+      <c r="D199" s="41"/>
+      <c r="E199" s="41"/>
       <c r="F199" s="41"/>
       <c r="G199" s="41"/>
       <c r="H199" s="41"/>
@@ -29524,219 +29435,37 @@
       <c r="M199" s="41"/>
       <c r="N199" s="41"/>
     </row>
-    <row r="200" spans="1:14" s="45" customFormat="1">
-      <c r="A200" s="41"/>
-      <c r="B200" s="41"/>
-      <c r="C200" s="41"/>
-      <c r="D200" s="41"/>
-      <c r="E200" s="41"/>
-      <c r="F200" s="41"/>
-      <c r="G200" s="41"/>
-      <c r="H200" s="41"/>
-      <c r="I200" s="41"/>
-      <c r="J200" s="41"/>
-      <c r="K200" s="41"/>
-      <c r="L200" s="41"/>
-      <c r="M200" s="41"/>
-      <c r="N200" s="41"/>
-    </row>
-    <row r="201" spans="1:14" s="45" customFormat="1" ht="71" customHeight="1">
-      <c r="A201" s="41"/>
-      <c r="B201" s="41"/>
-      <c r="C201" s="41"/>
-      <c r="D201" s="41" t="s">
-        <v>3975</v>
-      </c>
-      <c r="E201" s="65" t="s">
-        <v>3976</v>
-      </c>
-      <c r="F201" s="41"/>
-      <c r="G201" s="41"/>
-      <c r="H201" s="41"/>
-      <c r="I201" s="41"/>
-      <c r="J201" s="41"/>
-      <c r="K201" s="41"/>
-      <c r="L201" s="41"/>
-      <c r="M201" s="41"/>
-      <c r="N201" s="41"/>
-    </row>
-    <row r="202" spans="1:14" s="45" customFormat="1" ht="49.5">
-      <c r="A202" s="41"/>
-      <c r="B202" s="41"/>
-      <c r="C202" s="41"/>
-      <c r="D202" s="41" t="s">
-        <v>3942</v>
-      </c>
-      <c r="E202" s="41" t="s">
-        <v>3950</v>
-      </c>
-      <c r="F202" s="41"/>
-      <c r="G202" s="41"/>
-      <c r="H202" s="41"/>
-      <c r="I202" s="41"/>
-      <c r="J202" s="41"/>
-      <c r="K202" s="41"/>
-      <c r="L202" s="41"/>
-      <c r="M202" s="41"/>
-      <c r="N202" s="41"/>
-    </row>
-    <row r="203" spans="1:14" s="45" customFormat="1">
-      <c r="A203" s="41"/>
-      <c r="B203" s="41"/>
-      <c r="C203" s="41"/>
-      <c r="D203" s="41" t="s">
-        <v>3938</v>
-      </c>
-      <c r="E203" s="41" t="s">
-        <v>4014</v>
-      </c>
-      <c r="F203" s="41"/>
-      <c r="G203" s="41"/>
-      <c r="H203" s="41"/>
-      <c r="I203" s="41"/>
-      <c r="J203" s="41"/>
-      <c r="K203" s="41"/>
-      <c r="L203" s="41"/>
-      <c r="M203" s="41"/>
-      <c r="N203" s="41"/>
-    </row>
-    <row r="204" spans="1:14" s="45" customFormat="1">
-      <c r="A204" s="41"/>
-      <c r="B204" s="41"/>
-      <c r="C204" s="41"/>
-      <c r="D204" s="41" t="s">
-        <v>3939</v>
-      </c>
-      <c r="E204" s="41" t="s">
-        <v>4000</v>
-      </c>
-      <c r="F204" s="41"/>
-      <c r="G204" s="41"/>
-      <c r="H204" s="41"/>
-      <c r="I204" s="41"/>
-      <c r="J204" s="41"/>
-      <c r="K204" s="41"/>
-      <c r="L204" s="41"/>
-      <c r="M204" s="41"/>
-      <c r="N204" s="41"/>
-    </row>
-    <row r="205" spans="1:14" s="45" customFormat="1">
-      <c r="A205" s="41"/>
-      <c r="B205" s="41"/>
-      <c r="C205" s="41"/>
-      <c r="D205" s="41" t="s">
-        <v>3887</v>
-      </c>
-      <c r="E205" s="41" t="s">
-        <v>3972</v>
-      </c>
-      <c r="F205" s="41"/>
-      <c r="G205" s="41"/>
-      <c r="H205" s="41"/>
-      <c r="I205" s="41"/>
-      <c r="J205" s="41"/>
-      <c r="K205" s="41"/>
-      <c r="L205" s="41"/>
-      <c r="M205" s="41"/>
-      <c r="N205" s="41"/>
-    </row>
-    <row r="206" spans="1:14" s="45" customFormat="1">
-      <c r="A206" s="41"/>
-      <c r="B206" s="41"/>
-      <c r="C206" s="41"/>
-      <c r="D206" s="41"/>
-      <c r="E206" s="41"/>
-      <c r="F206" s="41"/>
-      <c r="G206" s="41"/>
-      <c r="H206" s="41"/>
-      <c r="I206" s="41"/>
-      <c r="J206" s="41"/>
-      <c r="K206" s="41"/>
-      <c r="L206" s="41"/>
-      <c r="M206" s="41"/>
-      <c r="N206" s="41"/>
-    </row>
-    <row r="207" spans="1:14" s="45" customFormat="1">
-      <c r="A207" s="41"/>
-      <c r="B207" s="41"/>
-      <c r="C207" s="41"/>
-      <c r="D207" s="41"/>
-      <c r="E207" s="41"/>
-      <c r="F207" s="41"/>
-      <c r="G207" s="41"/>
-      <c r="H207" s="41"/>
-      <c r="I207" s="41"/>
-      <c r="J207" s="41"/>
-      <c r="K207" s="41"/>
-      <c r="L207" s="41"/>
-      <c r="M207" s="41"/>
-      <c r="N207" s="41"/>
-    </row>
-    <row r="208" spans="1:14" s="45" customFormat="1" ht="24">
-      <c r="A208" s="41"/>
-      <c r="B208" s="41"/>
-      <c r="C208" s="41"/>
-      <c r="D208" s="41"/>
-      <c r="E208" s="41"/>
-      <c r="F208" s="41"/>
-      <c r="G208" s="41"/>
-      <c r="H208" s="41"/>
-      <c r="I208" s="46" t="s">
-        <v>3863</v>
-      </c>
-      <c r="J208" s="41"/>
-      <c r="K208" s="41"/>
-      <c r="L208" s="41"/>
-      <c r="M208" s="41"/>
-      <c r="N208" s="41"/>
-    </row>
-    <row r="209" spans="1:14" s="45" customFormat="1">
-      <c r="A209" s="41"/>
-      <c r="B209" s="41"/>
-      <c r="C209" s="41"/>
-      <c r="D209" s="41"/>
-      <c r="E209" s="41"/>
-      <c r="F209" s="41"/>
-      <c r="G209" s="41"/>
-      <c r="H209" s="41"/>
-      <c r="I209" s="41"/>
-      <c r="J209" s="41"/>
-      <c r="K209" s="41"/>
-      <c r="L209" s="41"/>
-      <c r="M209" s="41"/>
-      <c r="N209" s="41"/>
-    </row>
-    <row r="210" spans="1:14" s="45" customFormat="1"/>
-    <row r="211" spans="1:14" s="45" customFormat="1"/>
-    <row r="212" spans="1:14" s="45" customFormat="1"/>
-    <row r="213" spans="1:14" s="45" customFormat="1"/>
-    <row r="214" spans="1:14" s="45" customFormat="1"/>
-    <row r="215" spans="1:14" s="45" customFormat="1"/>
-    <row r="216" spans="1:14" s="45" customFormat="1"/>
-    <row r="217" spans="1:14" s="45" customFormat="1"/>
-    <row r="218" spans="1:14" s="45" customFormat="1"/>
-    <row r="220" spans="1:14" ht="24">
-      <c r="I220" s="57"/>
+    <row r="200" spans="1:14" s="45" customFormat="1"/>
+    <row r="201" spans="1:14" s="45" customFormat="1"/>
+    <row r="202" spans="1:14" s="45" customFormat="1"/>
+    <row r="203" spans="1:14" s="45" customFormat="1"/>
+    <row r="204" spans="1:14" s="45" customFormat="1"/>
+    <row r="205" spans="1:14" s="45" customFormat="1"/>
+    <row r="206" spans="1:14" s="45" customFormat="1"/>
+    <row r="207" spans="1:14" s="45" customFormat="1"/>
+    <row r="208" spans="1:14" s="45" customFormat="1"/>
+    <row r="210" spans="9:9" ht="24">
+      <c r="I210" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="J121:J122"/>
-    <mergeCell ref="J123:J129"/>
-    <mergeCell ref="J130:J140"/>
-    <mergeCell ref="J141:J143"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="J115:J121"/>
+    <mergeCell ref="J122:J132"/>
+    <mergeCell ref="J133:J135"/>
     <mergeCell ref="J1:N1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="C219:C65536 C1:C3 C5:C189">
+  <conditionalFormatting sqref="C209:C65526 C1:C3 C5:C180">
     <cfRule type="duplicateValues" dxfId="38" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
     <cfRule type="duplicateValues" dxfId="37" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C190">
+  <conditionalFormatting sqref="C181">
     <cfRule type="duplicateValues" dxfId="36" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C191">
+  <conditionalFormatting sqref="C182">
     <cfRule type="duplicateValues" dxfId="35" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
